--- a/import.xlsx
+++ b/import.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" tabRatio="796" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" tabRatio="796" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="competency_dic" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,14 @@
     <sheet name="user_sso" sheetId="9" state="hidden" r:id="rId6"/>
     <sheet name="basis_evaluation_appraisee" sheetId="12" r:id="rId7"/>
     <sheet name="competency_model" sheetId="3" r:id="rId8"/>
-    <sheet name="ability" sheetId="15" r:id="rId9"/>
-    <sheet name="competency_level" sheetId="13" r:id="rId10"/>
-    <sheet name="competency" sheetId="4" r:id="rId11"/>
-    <sheet name="behavior" sheetId="5" r:id="rId12"/>
-    <sheet name="test" sheetId="2" r:id="rId13"/>
+    <sheet name="competency" sheetId="4" r:id="rId9"/>
+    <sheet name="competency_level" sheetId="24" r:id="rId10"/>
+    <sheet name="training_method" sheetId="19" r:id="rId11"/>
+    <sheet name="training_teacher" sheetId="20" r:id="rId12"/>
+    <sheet name="course_property" sheetId="21" r:id="rId13"/>
+    <sheet name="ability" sheetId="15" r:id="rId14"/>
+    <sheet name="behavior" sheetId="5" r:id="rId15"/>
+    <sheet name="test" sheetId="2" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">account!$A$1:$I$20</definedName>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="354">
   <si>
     <t>competency_type</t>
   </si>
@@ -738,10 +741,6 @@
     <t>迎難而上，處理常規問題</t>
   </si>
   <si>
-    <t>#職能名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>當機立斷，敢於承擔</t>
   </si>
   <si>
@@ -841,27 +840,6 @@
     <t>text-en-ability_def</t>
   </si>
   <si>
-    <t>戰略思維</t>
-  </si>
-  <si>
-    <t>等級1</t>
-  </si>
-  <si>
-    <t>等級2</t>
-  </si>
-  <si>
-    <t>等級3</t>
-  </si>
-  <si>
-    <t>等級4</t>
-  </si>
-  <si>
-    <t>高效執行</t>
-  </si>
-  <si>
-    <t>決斷力</t>
-  </si>
-  <si>
     <t>迎難而上，面對工作中的非常規問題能迅速回應、判斷與處理。</t>
   </si>
   <si>
@@ -1133,10 +1111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>研發專業職能模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">高階管理職能模型 for XX公司 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1149,10 +1123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">研發專業職能模型 for XX公司 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user_account</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1279,6 +1249,200 @@
   </si>
   <si>
     <t>company_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評鑑方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>training_method_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程類型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>training_teacher_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>term-tw-training_teacher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>term-cn-training_teacher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>term-en-training_teacher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_code</t>
+  </si>
+  <si>
+    <t>catalog_id</t>
+  </si>
+  <si>
+    <t>term-tw-course_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>term-cn-course_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>term-en-course_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>term-tw-course_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>term-cn-course_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>term-en-course_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-tw-course_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-cn-course_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-en-course_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-tw-training_material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-cn-training_material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用職能模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用職能模型描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用職能A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述通用職能A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用職能B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用職能C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用職能D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述通用職能B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述通用職能C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述通用職能D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評鑑者資格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-tw-competency_evaluator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-cn-competency_evaluator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-en-competency_evaluator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-cn-competency_evaluation_method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-en-competency_evaluation_method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-tw-competency_evaluation_method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-tw-training_method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-cn-training_method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-en-training_method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-tw-training-course_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-cn-training-course_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-en-training-course_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訓練方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1286,7 +1450,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1327,6 +1491,29 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1356,7 +1543,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1403,6 +1590,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1861,270 +2057,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="28" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>89</v>
-      </c>
-      <c r="B2">
-        <v>113</v>
-      </c>
-      <c r="C2" t="str">
-        <f>VLOOKUP(B2,competency!$A$2:$F$1000,6,FALSE)</f>
-        <v>戰略思維</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>90</v>
-      </c>
-      <c r="B3">
-        <v>113</v>
-      </c>
-      <c r="C3" t="str">
-        <f>VLOOKUP(B3,competency!$A$2:$F$1000,6,FALSE)</f>
-        <v>戰略思維</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>91</v>
-      </c>
-      <c r="B4">
-        <v>113</v>
-      </c>
-      <c r="C4" t="str">
-        <f>VLOOKUP(B4,competency!$A$2:$F$1000,6,FALSE)</f>
-        <v>戰略思維</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>92</v>
-      </c>
-      <c r="B5">
-        <v>113</v>
-      </c>
-      <c r="C5" t="str">
-        <f>VLOOKUP(B5,competency!$A$2:$F$1000,6,FALSE)</f>
-        <v>戰略思維</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>93</v>
-      </c>
-      <c r="B6">
-        <v>114</v>
-      </c>
-      <c r="C6" t="str">
-        <f>VLOOKUP(B6,competency!$A$2:$F$1000,6,FALSE)</f>
-        <v>高效執行</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>94</v>
-      </c>
-      <c r="B7">
-        <v>114</v>
-      </c>
-      <c r="C7" t="str">
-        <f>VLOOKUP(B7,competency!$A$2:$F$1000,6,FALSE)</f>
-        <v>高效執行</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>95</v>
-      </c>
-      <c r="B8">
-        <v>114</v>
-      </c>
-      <c r="C8" t="str">
-        <f>VLOOKUP(B8,competency!$A$2:$F$1000,6,FALSE)</f>
-        <v>高效執行</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>96</v>
-      </c>
-      <c r="B9">
-        <v>114</v>
-      </c>
-      <c r="C9" t="str">
-        <f>VLOOKUP(B9,competency!$A$2:$F$1000,6,FALSE)</f>
-        <v>高效執行</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>97</v>
-      </c>
-      <c r="B10">
-        <v>115</v>
-      </c>
-      <c r="C10" t="str">
-        <f>VLOOKUP(B10,competency!$A$2:$F$1000,6,FALSE)</f>
-        <v>決斷力</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>98</v>
-      </c>
-      <c r="B11">
-        <v>115</v>
-      </c>
-      <c r="C11" t="str">
-        <f>VLOOKUP(B11,competency!$A$2:$F$1000,6,FALSE)</f>
-        <v>決斷力</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>99</v>
-      </c>
-      <c r="B12">
-        <v>115</v>
-      </c>
-      <c r="C12" t="str">
-        <f>VLOOKUP(B12,competency!$A$2:$F$1000,6,FALSE)</f>
-        <v>決斷力</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>100</v>
-      </c>
-      <c r="B13">
-        <v>115</v>
-      </c>
-      <c r="C13" t="str">
-        <f>VLOOKUP(B13,competency!$A$2:$F$1000,6,FALSE)</f>
-        <v>決斷力</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2132,269 +2065,722 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="10.125" customWidth="1"/>
-    <col min="9" max="11" width="31.25" customWidth="1"/>
+    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>95</v>
-      </c>
-      <c r="B2" s="1">
-        <f>competency_model!A2</f>
-        <v>100</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="C1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J1" t="s">
+        <v>343</v>
+      </c>
+      <c r="K1" t="s">
+        <v>346</v>
+      </c>
+      <c r="L1" t="s">
+        <v>344</v>
+      </c>
+      <c r="M1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>170</v>
+      </c>
+      <c r="B2">
+        <v>150</v>
+      </c>
+      <c r="C2" s="18" t="str">
+        <f>VLOOKUP(B2,competency!$A$2:$F$1004,6,FALSE)</f>
+        <v>通用職能A</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>96</v>
-      </c>
-      <c r="B3" s="1">
-        <f>competency_model!A2</f>
-        <v>100</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="1">
+        <v>171</v>
+      </c>
+      <c r="B3">
+        <v>150</v>
+      </c>
+      <c r="C3" s="18" t="str">
+        <f>VLOOKUP(B3,competency!$A$2:$F$1004,6,FALSE)</f>
+        <v>通用職能A</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" t="s">
+        <v>340</v>
+      </c>
+      <c r="K3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>172</v>
+      </c>
+      <c r="B4">
+        <v>150</v>
+      </c>
+      <c r="C4" s="18" t="str">
+        <f>VLOOKUP(B4,competency!$A$2:$F$1004,6,FALSE)</f>
+        <v>通用職能A</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" t="s">
+        <v>340</v>
+      </c>
+      <c r="K4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>173</v>
+      </c>
+      <c r="B5">
+        <v>150</v>
+      </c>
+      <c r="C5" s="18" t="str">
+        <f>VLOOKUP(B5,competency!$A$2:$F$1004,6,FALSE)</f>
+        <v>通用職能A</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" t="s">
+        <v>340</v>
+      </c>
+      <c r="K5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>174</v>
+      </c>
+      <c r="B6">
+        <v>151</v>
+      </c>
+      <c r="C6" s="18" t="str">
+        <f>VLOOKUP(B6,competency!$A$2:$F$1004,6,FALSE)</f>
+        <v>通用職能B</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" t="s">
+        <v>340</v>
+      </c>
+      <c r="K6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>175</v>
+      </c>
+      <c r="B7">
+        <v>151</v>
+      </c>
+      <c r="C7" s="18" t="str">
+        <f>VLOOKUP(B7,competency!$A$2:$F$1004,6,FALSE)</f>
+        <v>通用職能B</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>176</v>
+      </c>
+      <c r="B8">
+        <v>151</v>
+      </c>
+      <c r="C8" s="18" t="str">
+        <f>VLOOKUP(B8,competency!$A$2:$F$1004,6,FALSE)</f>
+        <v>通用職能B</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" t="s">
+        <v>340</v>
+      </c>
+      <c r="K8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>177</v>
+      </c>
+      <c r="B9">
+        <v>151</v>
+      </c>
+      <c r="C9" s="18" t="str">
+        <f>VLOOKUP(B9,competency!$A$2:$F$1004,6,FALSE)</f>
+        <v>通用職能B</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9" t="s">
+        <v>340</v>
+      </c>
+      <c r="K9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>178</v>
+      </c>
+      <c r="B10">
+        <v>152</v>
+      </c>
+      <c r="C10" s="18" t="str">
+        <f>VLOOKUP(B10,competency!$A$2:$F$1004,6,FALSE)</f>
+        <v>通用職能C</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" t="s">
+        <v>340</v>
+      </c>
+      <c r="K10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>179</v>
+      </c>
+      <c r="B11">
+        <v>152</v>
+      </c>
+      <c r="C11" s="18" t="str">
+        <f>VLOOKUP(B11,competency!$A$2:$F$1004,6,FALSE)</f>
+        <v>通用職能C</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" t="s">
+        <v>340</v>
+      </c>
+      <c r="K11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>180</v>
+      </c>
+      <c r="B12">
+        <v>152</v>
+      </c>
+      <c r="C12" s="18" t="str">
+        <f>VLOOKUP(B12,competency!$A$2:$F$1004,6,FALSE)</f>
+        <v>通用職能C</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H12" t="s">
+        <v>340</v>
+      </c>
+      <c r="K12" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>181</v>
+      </c>
+      <c r="B13">
+        <v>152</v>
+      </c>
+      <c r="C13" s="18" t="str">
+        <f>VLOOKUP(B13,competency!$A$2:$F$1004,6,FALSE)</f>
+        <v>通用職能C</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" t="s">
+        <v>340</v>
+      </c>
+      <c r="K13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>182</v>
+      </c>
+      <c r="B14">
+        <v>153</v>
+      </c>
+      <c r="C14" s="18" t="str">
+        <f>VLOOKUP(B14,competency!$A$2:$F$1004,6,FALSE)</f>
+        <v>通用職能D</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" t="s">
+        <v>340</v>
+      </c>
+      <c r="K14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>183</v>
+      </c>
+      <c r="B15">
+        <v>153</v>
+      </c>
+      <c r="C15" s="18" t="str">
+        <f>VLOOKUP(B15,competency!$A$2:$F$1004,6,FALSE)</f>
+        <v>通用職能D</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" t="s">
+        <v>340</v>
+      </c>
+      <c r="K15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>184</v>
+      </c>
+      <c r="B16">
+        <v>153</v>
+      </c>
+      <c r="C16" s="18" t="str">
+        <f>VLOOKUP(B16,competency!$A$2:$F$1004,6,FALSE)</f>
+        <v>通用職能D</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" t="s">
+        <v>340</v>
+      </c>
+      <c r="K16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>185</v>
+      </c>
+      <c r="B17">
+        <v>153</v>
+      </c>
+      <c r="C17" s="18" t="str">
+        <f>VLOOKUP(B17,competency!$A$2:$F$1004,6,FALSE)</f>
+        <v>通用職能D</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" t="s">
+        <v>340</v>
+      </c>
+      <c r="K17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="36.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>170</v>
+      </c>
+      <c r="C2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"課程類型"&amp;A2</f>
+        <v>課程類型24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>171</v>
+      </c>
+      <c r="C3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F7" si="0">"課程類型"&amp;A3</f>
+        <v>課程類型25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>97</v>
-      </c>
-      <c r="B4" s="1">
-        <f>competency_model!A2</f>
-        <v>100</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>172</v>
+      </c>
+      <c r="C4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>課程類型26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>173</v>
+      </c>
+      <c r="C5" t="s">
+        <v>353</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>課程類型27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>174</v>
+      </c>
+      <c r="C6" t="s">
+        <v>353</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>課程類型28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>175</v>
+      </c>
+      <c r="C7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>課程類型29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>176</v>
+      </c>
+      <c r="C8" t="s">
+        <v>353</v>
+      </c>
+      <c r="F8" t="str">
+        <f>"課程類型"&amp;A8</f>
+        <v>課程類型30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>177</v>
+      </c>
+      <c r="C9" t="s">
+        <v>353</v>
+      </c>
+      <c r="F9" t="str">
+        <f>"課程類型"&amp;A9</f>
+        <v>課程類型31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>32</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>98</v>
-      </c>
-      <c r="B5" s="1">
-        <f>competency_model!A2</f>
-        <v>100</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="66" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>99</v>
-      </c>
-      <c r="B6" s="1">
-        <f>competency_model!A2</f>
-        <v>100</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>113</v>
-      </c>
-      <c r="B7">
-        <v>103</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>114</v>
-      </c>
-      <c r="B8">
-        <v>103</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>132</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>115</v>
-      </c>
-      <c r="B9">
-        <v>103</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>134</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>135</v>
+      <c r="B10">
+        <v>178</v>
+      </c>
+      <c r="C10" t="s">
+        <v>353</v>
+      </c>
+      <c r="F10" t="str">
+        <f>"課程類型"&amp;A10</f>
+        <v>課程類型32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>179</v>
+      </c>
+      <c r="C11" t="s">
+        <v>353</v>
+      </c>
+      <c r="F11" t="str">
+        <f>"課程類型"&amp;A11</f>
+        <v>課程類型33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>180</v>
+      </c>
+      <c r="C12" t="s">
+        <v>353</v>
+      </c>
+      <c r="F12" t="str">
+        <f>"課程類型"&amp;A12</f>
+        <v>課程類型34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>181</v>
+      </c>
+      <c r="C13" t="s">
+        <v>353</v>
+      </c>
+      <c r="F13" t="str">
+        <f>"課程類型"&amp;A13</f>
+        <v>課程類型35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>182</v>
+      </c>
+      <c r="C14" t="s">
+        <v>353</v>
+      </c>
+      <c r="F14" t="str">
+        <f>"課程類型"&amp;A14</f>
+        <v>課程類型36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>183</v>
+      </c>
+      <c r="C15" t="s">
+        <v>353</v>
+      </c>
+      <c r="F15" t="str">
+        <f>"課程類型"&amp;A15</f>
+        <v>課程類型37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>184</v>
+      </c>
+      <c r="C16" t="s">
+        <v>353</v>
+      </c>
+      <c r="F16" t="str">
+        <f>"課程類型"&amp;A16</f>
+        <v>課程類型38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>185</v>
+      </c>
+      <c r="C17" t="s">
+        <v>353</v>
+      </c>
+      <c r="F17" t="str">
+        <f>"課程類型"&amp;A17</f>
+        <v>課程類型39</v>
       </c>
     </row>
   </sheetData>
@@ -2405,10 +2791,1518 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>170</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"訓練講師"&amp;A2</f>
+        <v>訓練講師24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>171</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C17" si="0">"訓練講師"&amp;A3</f>
+        <v>訓練講師25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>172</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>訓練講師26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>173</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5:C17" si="1">"訓練講師"&amp;A5</f>
+        <v>訓練講師27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>174</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>訓練講師28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>175</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>訓練講師29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>176</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>訓練講師30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>177</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>訓練講師31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>178</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>訓練講師32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>179</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>訓練講師33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>180</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>訓練講師34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>181</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>訓練講師35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>182</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>訓練講師36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>183</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>訓練講師37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>184</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>訓練講師38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>185</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>訓練講師39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="E1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J1" t="s">
+        <v>320</v>
+      </c>
+      <c r="K1" t="s">
+        <v>321</v>
+      </c>
+      <c r="L1" t="s">
+        <v>322</v>
+      </c>
+      <c r="M1" t="s">
+        <v>323</v>
+      </c>
+      <c r="N1" t="s">
+        <v>324</v>
+      </c>
+      <c r="O1" t="s">
+        <v>325</v>
+      </c>
+      <c r="P1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>97</v>
+      </c>
+      <c r="B2">
+        <v>170</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"課程名稱"&amp;A2</f>
+        <v>課程名稱97</v>
+      </c>
+      <c r="H2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>98</v>
+      </c>
+      <c r="B3">
+        <v>171</v>
+      </c>
+      <c r="E3" t="str">
+        <f>"課程名稱"&amp;A3</f>
+        <v>課程名稱98</v>
+      </c>
+      <c r="H3" t="s">
+        <v>307</v>
+      </c>
+      <c r="K3" t="s">
+        <v>326</v>
+      </c>
+      <c r="N3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>99</v>
+      </c>
+      <c r="B4">
+        <v>172</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E17" si="0">"課程名稱"&amp;A4</f>
+        <v>課程名稱99</v>
+      </c>
+      <c r="H4" t="s">
+        <v>307</v>
+      </c>
+      <c r="K4" t="s">
+        <v>326</v>
+      </c>
+      <c r="N4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>173</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>課程名稱100</v>
+      </c>
+      <c r="H5" t="s">
+        <v>307</v>
+      </c>
+      <c r="K5" t="s">
+        <v>326</v>
+      </c>
+      <c r="N5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>101</v>
+      </c>
+      <c r="B6">
+        <v>174</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>課程名稱101</v>
+      </c>
+      <c r="H6" t="s">
+        <v>307</v>
+      </c>
+      <c r="K6" t="s">
+        <v>326</v>
+      </c>
+      <c r="N6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>102</v>
+      </c>
+      <c r="B7">
+        <v>175</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>課程名稱102</v>
+      </c>
+      <c r="H7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K7" t="s">
+        <v>326</v>
+      </c>
+      <c r="N7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>103</v>
+      </c>
+      <c r="B8">
+        <v>176</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>課程名稱103</v>
+      </c>
+      <c r="H8" t="s">
+        <v>307</v>
+      </c>
+      <c r="K8" t="s">
+        <v>326</v>
+      </c>
+      <c r="N8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>104</v>
+      </c>
+      <c r="B9">
+        <v>177</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>課程名稱104</v>
+      </c>
+      <c r="H9" t="s">
+        <v>307</v>
+      </c>
+      <c r="K9" t="s">
+        <v>326</v>
+      </c>
+      <c r="N9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>105</v>
+      </c>
+      <c r="B10">
+        <v>178</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>課程名稱105</v>
+      </c>
+      <c r="H10" t="s">
+        <v>307</v>
+      </c>
+      <c r="K10" t="s">
+        <v>326</v>
+      </c>
+      <c r="N10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>106</v>
+      </c>
+      <c r="B11">
+        <v>179</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>課程名稱106</v>
+      </c>
+      <c r="H11" t="s">
+        <v>307</v>
+      </c>
+      <c r="K11" t="s">
+        <v>326</v>
+      </c>
+      <c r="N11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>107</v>
+      </c>
+      <c r="B12">
+        <v>180</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>課程名稱107</v>
+      </c>
+      <c r="H12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K12" t="s">
+        <v>326</v>
+      </c>
+      <c r="N12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>108</v>
+      </c>
+      <c r="B13">
+        <v>181</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>課程名稱108</v>
+      </c>
+      <c r="H13" t="s">
+        <v>307</v>
+      </c>
+      <c r="K13" t="s">
+        <v>326</v>
+      </c>
+      <c r="N13" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>109</v>
+      </c>
+      <c r="B14">
+        <v>182</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>課程名稱109</v>
+      </c>
+      <c r="H14" t="s">
+        <v>307</v>
+      </c>
+      <c r="K14" t="s">
+        <v>326</v>
+      </c>
+      <c r="N14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>110</v>
+      </c>
+      <c r="B15">
+        <v>183</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>課程名稱110</v>
+      </c>
+      <c r="H15" t="s">
+        <v>307</v>
+      </c>
+      <c r="K15" t="s">
+        <v>326</v>
+      </c>
+      <c r="N15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>111</v>
+      </c>
+      <c r="B16">
+        <v>184</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>課程名稱111</v>
+      </c>
+      <c r="H16" t="s">
+        <v>307</v>
+      </c>
+      <c r="K16" t="s">
+        <v>326</v>
+      </c>
+      <c r="N16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>112</v>
+      </c>
+      <c r="B17">
+        <v>185</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>課程名稱112</v>
+      </c>
+      <c r="H17" t="s">
+        <v>307</v>
+      </c>
+      <c r="K17" t="s">
+        <v>326</v>
+      </c>
+      <c r="N17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="16" customWidth="1"/>
+    <col min="6" max="6" width="34.875" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="24.375" customWidth="1"/>
+    <col min="9" max="11" width="35.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>90</v>
+      </c>
+      <c r="B2">
+        <v>134</v>
+      </c>
+      <c r="C2" s="16" t="e">
+        <f>VLOOKUP(B2,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D2" s="16" t="e">
+        <f>VLOOKUP(B2,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E2" s="16" t="e">
+        <f>VLOOKUP(B2,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>91</v>
+      </c>
+      <c r="B3">
+        <v>135</v>
+      </c>
+      <c r="C3" s="16" t="e">
+        <f>VLOOKUP(B3,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D3" s="16" t="e">
+        <f>VLOOKUP(B3,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E3" s="16" t="e">
+        <f>VLOOKUP(B3,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>92</v>
+      </c>
+      <c r="B4">
+        <v>136</v>
+      </c>
+      <c r="C4" s="16" t="e">
+        <f>VLOOKUP(B4,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D4" s="16" t="e">
+        <f>VLOOKUP(B4,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="16" t="e">
+        <f>VLOOKUP(B4,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>93</v>
+      </c>
+      <c r="B5">
+        <v>137</v>
+      </c>
+      <c r="C5" s="16" t="e">
+        <f>VLOOKUP(B5,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="16" t="e">
+        <f>VLOOKUP(B5,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E5" s="16" t="e">
+        <f>VLOOKUP(B5,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>94</v>
+      </c>
+      <c r="B6">
+        <v>138</v>
+      </c>
+      <c r="C6" s="16" t="e">
+        <f>VLOOKUP(B6,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D6" s="16" t="e">
+        <f>VLOOKUP(B6,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E6" s="16" t="e">
+        <f>VLOOKUP(B6,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>95</v>
+      </c>
+      <c r="B7">
+        <v>139</v>
+      </c>
+      <c r="C7" s="16" t="e">
+        <f>VLOOKUP(B7,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D7" s="16" t="e">
+        <f>VLOOKUP(B7,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E7" s="16" t="e">
+        <f>VLOOKUP(B7,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>96</v>
+      </c>
+      <c r="B8">
+        <v>140</v>
+      </c>
+      <c r="C8" s="16" t="e">
+        <f>VLOOKUP(B8,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D8" s="16" t="e">
+        <f>VLOOKUP(B8,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E8" s="16" t="e">
+        <f>VLOOKUP(B8,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F8" t="s">
+        <v>165</v>
+      </c>
+      <c r="I8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>97</v>
+      </c>
+      <c r="B9">
+        <v>141</v>
+      </c>
+      <c r="C9" s="16" t="e">
+        <f>VLOOKUP(B9,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D9" s="16" t="e">
+        <f>VLOOKUP(B9,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E9" s="16" t="e">
+        <f>VLOOKUP(B9,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F9" t="s">
+        <v>167</v>
+      </c>
+      <c r="I9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>98</v>
+      </c>
+      <c r="B10">
+        <v>142</v>
+      </c>
+      <c r="C10" s="16" t="e">
+        <f>VLOOKUP(B10,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D10" s="16" t="e">
+        <f>VLOOKUP(B10,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E10" s="16" t="e">
+        <f>VLOOKUP(B10,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F10" t="s">
+        <v>146</v>
+      </c>
+      <c r="I10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>99</v>
+      </c>
+      <c r="B11">
+        <v>143</v>
+      </c>
+      <c r="C11" s="16" t="e">
+        <f>VLOOKUP(B11,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="16" t="e">
+        <f>VLOOKUP(B11,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="16" t="e">
+        <f>VLOOKUP(B11,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>144</v>
+      </c>
+      <c r="C12" s="16" t="e">
+        <f>VLOOKUP(B12,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D12" s="16" t="e">
+        <f>VLOOKUP(B12,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E12" s="16" t="e">
+        <f>VLOOKUP(B12,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>101</v>
+      </c>
+      <c r="B13">
+        <v>145</v>
+      </c>
+      <c r="C13" s="16" t="e">
+        <f>VLOOKUP(B13,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D13" s="16" t="e">
+        <f>VLOOKUP(B13,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="16" t="e">
+        <f>VLOOKUP(B13,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F13" t="s">
+        <v>151</v>
+      </c>
+      <c r="I13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>102</v>
+      </c>
+      <c r="B14">
+        <v>170</v>
+      </c>
+      <c r="C14" s="16">
+        <f>VLOOKUP(B14,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="D14" s="16">
+        <f>VLOOKUP(B14,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="16" t="str">
+        <f>VLOOKUP(B14,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <v>等級1</v>
+      </c>
+      <c r="F14" t="str">
+        <f>C14&amp;E14&amp;"能力名稱"&amp;A14</f>
+        <v>150等級1能力名稱102</v>
+      </c>
+      <c r="I14" t="str">
+        <f>"描述"&amp;C14&amp;E14&amp;"-"&amp;A14</f>
+        <v>描述150等級1-102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>103</v>
+      </c>
+      <c r="B15">
+        <v>170</v>
+      </c>
+      <c r="C15" s="16">
+        <f>VLOOKUP(B15,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="D15" s="16">
+        <f>VLOOKUP(B15,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="16" t="str">
+        <f>VLOOKUP(B15,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <v>等級1</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" ref="F15:F31" si="0">C15&amp;E15&amp;"能力名稱"&amp;A15</f>
+        <v>150等級1能力名稱103</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" ref="I15:I31" si="1">"描述"&amp;C15&amp;E15&amp;"-"&amp;A15</f>
+        <v>描述150等級1-103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>104</v>
+      </c>
+      <c r="B16">
+        <v>171</v>
+      </c>
+      <c r="C16" s="16">
+        <f>VLOOKUP(B16,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="D16" s="16">
+        <f>VLOOKUP(B16,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="16" t="str">
+        <f>VLOOKUP(B16,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <v>等級2</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>150等級2能力名稱104</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>描述150等級2-104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>105</v>
+      </c>
+      <c r="B17">
+        <v>171</v>
+      </c>
+      <c r="C17" s="16">
+        <f>VLOOKUP(B17,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="D17" s="16">
+        <f>VLOOKUP(B17,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E17" s="16" t="str">
+        <f>VLOOKUP(B17,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <v>等級2</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>150等級2能力名稱105</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>描述150等級2-105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>106</v>
+      </c>
+      <c r="B18">
+        <v>171</v>
+      </c>
+      <c r="C18" s="16">
+        <f>VLOOKUP(B18,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="D18" s="16">
+        <f>VLOOKUP(B18,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E18" s="16" t="str">
+        <f>VLOOKUP(B18,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <v>等級2</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>150等級2能力名稱106</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>描述150等級2-106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>107</v>
+      </c>
+      <c r="B19">
+        <v>173</v>
+      </c>
+      <c r="C19" s="16">
+        <f>VLOOKUP(B19,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="D19" s="16">
+        <f>VLOOKUP(B19,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E19" s="16" t="str">
+        <f>VLOOKUP(B19,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <v>等級4</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>150等級4能力名稱107</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="1"/>
+        <v>描述150等級4-107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>108</v>
+      </c>
+      <c r="B20">
+        <v>174</v>
+      </c>
+      <c r="C20" s="16">
+        <f>VLOOKUP(B20,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <v>151</v>
+      </c>
+      <c r="D20" s="16">
+        <f>VLOOKUP(B20,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="16" t="str">
+        <f>VLOOKUP(B20,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <v>等級1</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>151等級1能力名稱108</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="1"/>
+        <v>描述151等級1-108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>109</v>
+      </c>
+      <c r="B21">
+        <v>175</v>
+      </c>
+      <c r="C21" s="16">
+        <f>VLOOKUP(B21,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <v>151</v>
+      </c>
+      <c r="D21" s="16">
+        <f>VLOOKUP(B21,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E21" s="16" t="str">
+        <f>VLOOKUP(B21,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <v>等級2</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>151等級2能力名稱109</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="1"/>
+        <v>描述151等級2-109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>110</v>
+      </c>
+      <c r="B22">
+        <v>176</v>
+      </c>
+      <c r="C22" s="16">
+        <f>VLOOKUP(B22,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <v>151</v>
+      </c>
+      <c r="D22" s="16">
+        <f>VLOOKUP(B22,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E22" s="16" t="str">
+        <f>VLOOKUP(B22,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <v>等級3</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>151等級3能力名稱110</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="1"/>
+        <v>描述151等級3-110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>111</v>
+      </c>
+      <c r="B23">
+        <v>177</v>
+      </c>
+      <c r="C23" s="16">
+        <f>VLOOKUP(B23,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <v>151</v>
+      </c>
+      <c r="D23" s="16">
+        <f>VLOOKUP(B23,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E23" s="16" t="str">
+        <f>VLOOKUP(B23,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <v>等級4</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>151等級4能力名稱111</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="1"/>
+        <v>描述151等級4-111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>112</v>
+      </c>
+      <c r="B24">
+        <v>178</v>
+      </c>
+      <c r="C24" s="16">
+        <f>VLOOKUP(B24,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <v>152</v>
+      </c>
+      <c r="D24" s="16">
+        <f>VLOOKUP(B24,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="16" t="str">
+        <f>VLOOKUP(B24,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <v>等級1</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>152等級1能力名稱112</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="1"/>
+        <v>描述152等級1-112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>113</v>
+      </c>
+      <c r="B25">
+        <v>179</v>
+      </c>
+      <c r="C25" s="16">
+        <f>VLOOKUP(B25,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <v>152</v>
+      </c>
+      <c r="D25" s="16">
+        <f>VLOOKUP(B25,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E25" s="16" t="str">
+        <f>VLOOKUP(B25,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <v>等級2</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>152等級2能力名稱113</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="1"/>
+        <v>描述152等級2-113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>114</v>
+      </c>
+      <c r="B26">
+        <v>180</v>
+      </c>
+      <c r="C26" s="16">
+        <f>VLOOKUP(B26,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <v>152</v>
+      </c>
+      <c r="D26" s="16">
+        <f>VLOOKUP(B26,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E26" s="16" t="str">
+        <f>VLOOKUP(B26,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <v>等級3</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>152等級3能力名稱114</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="1"/>
+        <v>描述152等級3-114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>115</v>
+      </c>
+      <c r="B27">
+        <v>181</v>
+      </c>
+      <c r="C27" s="16">
+        <f>VLOOKUP(B27,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <v>152</v>
+      </c>
+      <c r="D27" s="16">
+        <f>VLOOKUP(B27,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E27" s="16" t="str">
+        <f>VLOOKUP(B27,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <v>等級4</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>152等級4能力名稱115</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="1"/>
+        <v>描述152等級4-115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>116</v>
+      </c>
+      <c r="B28">
+        <v>182</v>
+      </c>
+      <c r="C28" s="16">
+        <f>VLOOKUP(B28,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <v>153</v>
+      </c>
+      <c r="D28" s="16">
+        <f>VLOOKUP(B28,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E28" s="16" t="str">
+        <f>VLOOKUP(B28,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <v>等級1</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>153等級1能力名稱116</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="1"/>
+        <v>描述153等級1-116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>117</v>
+      </c>
+      <c r="B29">
+        <v>183</v>
+      </c>
+      <c r="C29" s="16">
+        <f>VLOOKUP(B29,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <v>153</v>
+      </c>
+      <c r="D29" s="16">
+        <f>VLOOKUP(B29,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E29" s="16" t="str">
+        <f>VLOOKUP(B29,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <v>等級2</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>153等級2能力名稱117</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="1"/>
+        <v>描述153等級2-117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>118</v>
+      </c>
+      <c r="B30">
+        <v>184</v>
+      </c>
+      <c r="C30" s="16">
+        <f>VLOOKUP(B30,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <v>153</v>
+      </c>
+      <c r="D30" s="16">
+        <f>VLOOKUP(B30,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E30" s="16" t="str">
+        <f>VLOOKUP(B30,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <v>等級3</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>153等級3能力名稱118</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="1"/>
+        <v>描述153等級3-118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>119</v>
+      </c>
+      <c r="B31">
+        <v>185</v>
+      </c>
+      <c r="C31" s="16">
+        <f>VLOOKUP(B31,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <v>153</v>
+      </c>
+      <c r="D31" s="16">
+        <f>VLOOKUP(B31,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E31" s="16" t="str">
+        <f>VLOOKUP(B31,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <v>等級4</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>153等級4能力名稱119</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="1"/>
+        <v>描述153等級4-119</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2451,7 +4345,7 @@
         <v>95</v>
       </c>
       <c r="C2" t="str">
-        <f>VLOOKUP(B2,competency!$A$2:$F$1000,6,FALSE)</f>
+        <f>VLOOKUP(B2,competency!$A$6:$F$1004,6,FALSE)</f>
         <v>溝通協調能力</v>
       </c>
       <c r="D2">
@@ -2469,7 +4363,7 @@
         <v>95</v>
       </c>
       <c r="C3" t="str">
-        <f>VLOOKUP(B3,competency!$A$2:$F$1000,6,FALSE)</f>
+        <f>VLOOKUP(B3,competency!$A$6:$F$1004,6,FALSE)</f>
         <v>溝通協調能力</v>
       </c>
       <c r="D3">
@@ -2487,7 +4381,7 @@
         <v>95</v>
       </c>
       <c r="C4" t="str">
-        <f>VLOOKUP(B4,competency!$A$2:$F$1000,6,FALSE)</f>
+        <f>VLOOKUP(B4,competency!$A$6:$F$1004,6,FALSE)</f>
         <v>溝通協調能力</v>
       </c>
       <c r="D4">
@@ -2505,7 +4399,7 @@
         <v>95</v>
       </c>
       <c r="C5" t="str">
-        <f>VLOOKUP(B5,competency!$A$2:$F$1000,6,FALSE)</f>
+        <f>VLOOKUP(B5,competency!$A$6:$F$1004,6,FALSE)</f>
         <v>溝通協調能力</v>
       </c>
       <c r="D5">
@@ -2523,7 +4417,7 @@
         <v>95</v>
       </c>
       <c r="C6" t="str">
-        <f>VLOOKUP(B6,competency!$A$2:$F$1000,6,FALSE)</f>
+        <f>VLOOKUP(B6,competency!$A$6:$F$1004,6,FALSE)</f>
         <v>溝通協調能力</v>
       </c>
       <c r="D6">
@@ -2541,7 +4435,7 @@
         <v>96</v>
       </c>
       <c r="C7" t="str">
-        <f>VLOOKUP(B7,competency!$A$2:$F$1000,6,FALSE)</f>
+        <f>VLOOKUP(B7,competency!$A$6:$F$1004,6,FALSE)</f>
         <v>執行能力</v>
       </c>
       <c r="D7">
@@ -2559,7 +4453,7 @@
         <v>96</v>
       </c>
       <c r="C8" t="str">
-        <f>VLOOKUP(B8,competency!$A$2:$F$1000,6,FALSE)</f>
+        <f>VLOOKUP(B8,competency!$A$6:$F$1004,6,FALSE)</f>
         <v>執行能力</v>
       </c>
       <c r="D8">
@@ -2577,7 +4471,7 @@
         <v>96</v>
       </c>
       <c r="C9" t="str">
-        <f>VLOOKUP(B9,competency!$A$2:$F$1000,6,FALSE)</f>
+        <f>VLOOKUP(B9,competency!$A$6:$F$1004,6,FALSE)</f>
         <v>執行能力</v>
       </c>
       <c r="D9">
@@ -2595,7 +4489,7 @@
         <v>96</v>
       </c>
       <c r="C10" t="str">
-        <f>VLOOKUP(B10,competency!$A$2:$F$1000,6,FALSE)</f>
+        <f>VLOOKUP(B10,competency!$A$6:$F$1004,6,FALSE)</f>
         <v>執行能力</v>
       </c>
       <c r="D10">
@@ -2613,7 +4507,7 @@
         <v>96</v>
       </c>
       <c r="C11" t="str">
-        <f>VLOOKUP(B11,competency!$A$2:$F$1000,6,FALSE)</f>
+        <f>VLOOKUP(B11,competency!$A$6:$F$1004,6,FALSE)</f>
         <v>執行能力</v>
       </c>
       <c r="D11">
@@ -2631,7 +4525,7 @@
         <v>97</v>
       </c>
       <c r="C12" t="str">
-        <f>VLOOKUP(B12,competency!$A$2:$F$1000,6,FALSE)</f>
+        <f>VLOOKUP(B12,competency!$A$6:$F$1004,6,FALSE)</f>
         <v>客戶導向</v>
       </c>
       <c r="D12">
@@ -2649,7 +4543,7 @@
         <v>97</v>
       </c>
       <c r="C13" t="str">
-        <f>VLOOKUP(B13,competency!$A$2:$F$1000,6,FALSE)</f>
+        <f>VLOOKUP(B13,competency!$A$6:$F$1004,6,FALSE)</f>
         <v>客戶導向</v>
       </c>
       <c r="D13">
@@ -2667,7 +4561,7 @@
         <v>97</v>
       </c>
       <c r="C14" t="str">
-        <f>VLOOKUP(B14,competency!$A$2:$F$1000,6,FALSE)</f>
+        <f>VLOOKUP(B14,competency!$A$6:$F$1004,6,FALSE)</f>
         <v>客戶導向</v>
       </c>
       <c r="D14">
@@ -2685,7 +4579,7 @@
         <v>97</v>
       </c>
       <c r="C15" t="str">
-        <f>VLOOKUP(B15,competency!$A$2:$F$1000,6,FALSE)</f>
+        <f>VLOOKUP(B15,competency!$A$6:$F$1004,6,FALSE)</f>
         <v>客戶導向</v>
       </c>
       <c r="D15">
@@ -2703,7 +4597,7 @@
         <v>97</v>
       </c>
       <c r="C16" t="str">
-        <f>VLOOKUP(B16,competency!$A$2:$F$1000,6,FALSE)</f>
+        <f>VLOOKUP(B16,competency!$A$6:$F$1004,6,FALSE)</f>
         <v>客戶導向</v>
       </c>
       <c r="D16">
@@ -2721,7 +4615,7 @@
         <v>98</v>
       </c>
       <c r="C17" t="str">
-        <f>VLOOKUP(B17,competency!$A$2:$F$1000,6,FALSE)</f>
+        <f>VLOOKUP(B17,competency!$A$6:$F$1004,6,FALSE)</f>
         <v>人際關係建立</v>
       </c>
       <c r="D17">
@@ -2739,7 +4633,7 @@
         <v>98</v>
       </c>
       <c r="C18" t="str">
-        <f>VLOOKUP(B18,competency!$A$2:$F$1000,6,FALSE)</f>
+        <f>VLOOKUP(B18,competency!$A$6:$F$1004,6,FALSE)</f>
         <v>人際關係建立</v>
       </c>
       <c r="D18">
@@ -2757,7 +4651,7 @@
         <v>98</v>
       </c>
       <c r="C19" t="str">
-        <f>VLOOKUP(B19,competency!$A$2:$F$1000,6,FALSE)</f>
+        <f>VLOOKUP(B19,competency!$A$6:$F$1004,6,FALSE)</f>
         <v>人際關係建立</v>
       </c>
       <c r="D19">
@@ -2775,7 +4669,7 @@
         <v>98</v>
       </c>
       <c r="C20" t="str">
-        <f>VLOOKUP(B20,competency!$A$2:$F$1000,6,FALSE)</f>
+        <f>VLOOKUP(B20,competency!$A$6:$F$1004,6,FALSE)</f>
         <v>人際關係建立</v>
       </c>
       <c r="D20">
@@ -2793,7 +4687,7 @@
         <v>98</v>
       </c>
       <c r="C21" t="str">
-        <f>VLOOKUP(B21,competency!$A$2:$F$1000,6,FALSE)</f>
+        <f>VLOOKUP(B21,competency!$A$6:$F$1004,6,FALSE)</f>
         <v>人際關係建立</v>
       </c>
       <c r="D21">
@@ -2811,7 +4705,7 @@
         <v>99</v>
       </c>
       <c r="C22" t="str">
-        <f>VLOOKUP(B22,competency!$A$2:$F$1000,6,FALSE)</f>
+        <f>VLOOKUP(B22,competency!$A$6:$F$1004,6,FALSE)</f>
         <v>培育/指導部屬</v>
       </c>
       <c r="D22">
@@ -2829,7 +4723,7 @@
         <v>99</v>
       </c>
       <c r="C23" t="str">
-        <f>VLOOKUP(B23,competency!$A$2:$F$1000,6,FALSE)</f>
+        <f>VLOOKUP(B23,competency!$A$6:$F$1004,6,FALSE)</f>
         <v>培育/指導部屬</v>
       </c>
       <c r="D23">
@@ -2847,7 +4741,7 @@
         <v>99</v>
       </c>
       <c r="C24" t="str">
-        <f>VLOOKUP(B24,competency!$A$2:$F$1000,6,FALSE)</f>
+        <f>VLOOKUP(B24,competency!$A$6:$F$1004,6,FALSE)</f>
         <v>培育/指導部屬</v>
       </c>
       <c r="D24">
@@ -2865,7 +4759,7 @@
         <v>99</v>
       </c>
       <c r="C25" t="str">
-        <f>VLOOKUP(B25,competency!$A$2:$F$1000,6,FALSE)</f>
+        <f>VLOOKUP(B25,competency!$A$6:$F$1004,6,FALSE)</f>
         <v>培育/指導部屬</v>
       </c>
       <c r="D25">
@@ -2883,7 +4777,7 @@
         <v>99</v>
       </c>
       <c r="C26" t="str">
-        <f>VLOOKUP(B26,competency!$A$2:$F$1000,6,FALSE)</f>
+        <f>VLOOKUP(B26,competency!$A$6:$F$1004,6,FALSE)</f>
         <v>培育/指導部屬</v>
       </c>
       <c r="D26">
@@ -2900,7 +4794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -3024,37 +4918,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="F1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="G1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="H1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="I1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="J1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="K1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3076,10 +4970,10 @@
         <v>#N/A</v>
       </c>
       <c r="H2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="I2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -3093,7 +4987,7 @@
         <v>468</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
@@ -3107,7 +5001,7 @@
         <v>#N/A</v>
       </c>
       <c r="H3" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -3121,7 +5015,7 @@
         <v>469</v>
       </c>
       <c r="B4" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
@@ -3135,7 +5029,7 @@
         <v>#N/A</v>
       </c>
       <c r="H4" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -3149,7 +5043,7 @@
         <v>470</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
@@ -3163,7 +5057,7 @@
         <v>#N/A</v>
       </c>
       <c r="H5" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -3177,7 +5071,7 @@
         <v>471</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -3191,7 +5085,7 @@
         <v>#N/A</v>
       </c>
       <c r="H6" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -3205,7 +5099,7 @@
         <v>473</v>
       </c>
       <c r="B7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -3219,7 +5113,7 @@
         <v>#N/A</v>
       </c>
       <c r="H7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -3233,7 +5127,7 @@
         <v>474</v>
       </c>
       <c r="B8" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -3247,7 +5141,7 @@
         <v>#N/A</v>
       </c>
       <c r="H8" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -3261,7 +5155,7 @@
         <v>475</v>
       </c>
       <c r="B9" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -3275,7 +5169,7 @@
         <v>#N/A</v>
       </c>
       <c r="H9" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -3289,7 +5183,7 @@
         <v>476</v>
       </c>
       <c r="B10" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -3303,7 +5197,7 @@
         <v>#N/A</v>
       </c>
       <c r="H10" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -3317,7 +5211,7 @@
         <v>477</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -3331,7 +5225,7 @@
         <v>#N/A</v>
       </c>
       <c r="H11" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3345,7 +5239,7 @@
         <v>478</v>
       </c>
       <c r="B12" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -3359,7 +5253,7 @@
         <v>#N/A</v>
       </c>
       <c r="H12" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -3387,7 +5281,7 @@
         <v>#N/A</v>
       </c>
       <c r="H13" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -3415,7 +5309,7 @@
         <v>#N/A</v>
       </c>
       <c r="H14" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -3441,8 +5335,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3454,19 +5348,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="E1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3477,10 +5371,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D2" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -3507,22 +5401,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D1" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="E1" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="F1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3548,7 +5442,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F39" si="0">A3</f>
@@ -3563,7 +5457,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -3578,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -3593,7 +5487,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -3638,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -3653,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -3668,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -3683,7 +5577,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -3698,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -3728,7 +5622,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -3758,7 +5652,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -3773,7 +5667,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
@@ -3788,7 +5682,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
@@ -3818,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
@@ -3833,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
@@ -3848,7 +5742,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
@@ -3863,7 +5757,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
@@ -3908,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
@@ -3923,7 +5817,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
@@ -3938,7 +5832,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
@@ -3953,7 +5847,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
@@ -3968,7 +5862,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
@@ -3983,7 +5877,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
@@ -3998,7 +5892,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
@@ -4073,7 +5967,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
@@ -4136,7 +6030,7 @@
         <v>126</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>113</v>
@@ -4151,19 +6045,19 @@
         <v>115</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4177,19 +6071,19 @@
         <v>22503</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>107</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="I2" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="J2">
         <f>VLOOKUP(G2,job!$C$2:$F$1000,4,FALSE)</f>
@@ -4205,25 +6099,25 @@
         <v>282</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C3">
         <v>12381</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="I3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J3">
         <f>VLOOKUP(G3,job!$C$2:$F$1000,4,FALSE)</f>
@@ -4245,19 +6139,19 @@
         <v>16568</v>
       </c>
       <c r="D4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F4" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="I4" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="J4">
         <f>VLOOKUP(G4,job!$C$2:$F$1000,4,FALSE)</f>
@@ -4279,19 +6173,19 @@
         <v>70810</v>
       </c>
       <c r="D5" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="I5" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="J5">
         <f>VLOOKUP(G5,job!$C$2:$F$1000,4,FALSE)</f>
@@ -4313,19 +6207,19 @@
         <v>98125</v>
       </c>
       <c r="D6" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F6" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="I6" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="J6">
         <f>VLOOKUP(G6,job!$C$2:$F$1000,4,FALSE)</f>
@@ -4347,19 +6241,19 @@
         <v>71254</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="I7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J7">
         <f>VLOOKUP(G7,job!$C$2:$F$1000,4,FALSE)</f>
@@ -4381,19 +6275,19 @@
         <v>21653</v>
       </c>
       <c r="D8" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F8" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="I8" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J8">
         <f>VLOOKUP(G8,job!$C$2:$F$1000,4,FALSE)</f>
@@ -4415,19 +6309,19 @@
         <v>37032</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F9" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>111</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="I9" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J9">
         <f>VLOOKUP(G9,job!$C$2:$F$1000,4,FALSE)</f>
@@ -4449,19 +6343,19 @@
         <v>57903</v>
       </c>
       <c r="D10" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F10" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="I10" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J10">
         <f>VLOOKUP(G10,job!$C$2:$F$1000,4,FALSE)</f>
@@ -4483,19 +6377,19 @@
         <v>72232</v>
       </c>
       <c r="D11" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F11" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>111</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="I11" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="J11">
         <f>VLOOKUP(G11,job!$C$2:$F$1000,4,FALSE)</f>
@@ -4517,19 +6411,19 @@
         <v>86405</v>
       </c>
       <c r="D12" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F12" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="I12" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J12">
         <f>VLOOKUP(G12,job!$C$2:$F$1000,4,FALSE)</f>
@@ -4551,19 +6445,19 @@
         <v>27241</v>
       </c>
       <c r="D13" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F13" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="I13" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J13">
         <f>VLOOKUP(G13,job!$C$2:$F$1000,4,FALSE)</f>
@@ -4585,19 +6479,19 @@
         <v>26273</v>
       </c>
       <c r="D14" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F14" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="I14" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J14">
         <f>VLOOKUP(G14,job!$C$2:$F$1000,4,FALSE)</f>
@@ -4619,19 +6513,19 @@
         <v>37146</v>
       </c>
       <c r="D15" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F15" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="I15" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J15">
         <f>VLOOKUP(G15,job!$C$2:$F$1000,4,FALSE)</f>
@@ -4647,25 +6541,25 @@
         <v>46</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C16">
         <v>43122</v>
       </c>
       <c r="D16" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F16" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>99</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I16" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="J16">
         <f>VLOOKUP(G16,job!$C$2:$F$1000,4,FALSE)</f>
@@ -4681,25 +6575,25 @@
         <v>524</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C17">
         <v>41192</v>
       </c>
       <c r="D17" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F17" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="H17" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="I17" t="s">
         <v>228</v>
-      </c>
-      <c r="I17" t="s">
-        <v>236</v>
       </c>
       <c r="J17">
         <f>VLOOKUP(G17,job!$C$2:$F$1000,4,FALSE)</f>
@@ -4715,25 +6609,25 @@
         <v>699</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C18">
         <v>77734</v>
       </c>
       <c r="D18" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F18" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="H18" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="I18" t="s">
         <v>228</v>
-      </c>
-      <c r="I18" t="s">
-        <v>236</v>
       </c>
       <c r="J18">
         <f>VLOOKUP(G18,job!$C$2:$F$1000,4,FALSE)</f>
@@ -4755,19 +6649,19 @@
         <v>63976</v>
       </c>
       <c r="D19" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F19" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>111</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I19" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="J19">
         <f>VLOOKUP(G19,job!$C$2:$F$1000,4,FALSE)</f>
@@ -4789,19 +6683,19 @@
         <v>53111</v>
       </c>
       <c r="D20" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F20" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="J20">
         <f>VLOOKUP(G20,job!$C$2:$F$1000,4,FALSE)</f>
@@ -7864,10 +9758,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -7920,10 +9814,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="H2" t="s">
         <v>32</v>
@@ -7937,10 +9831,10 @@
         <v>101</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="H3" t="s">
         <v>32</v>
@@ -7954,10 +9848,10 @@
         <v>102</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
@@ -7968,22 +9862,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="H5" t="s">
-        <v>127</v>
+        <v>331</v>
       </c>
       <c r="I5" t="s">
-        <v>128</v>
+        <v>330</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7998,331 +9892,366 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="171.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
+    <col min="9" max="11" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>78</v>
-      </c>
-      <c r="B2">
-        <v>89</v>
-      </c>
-      <c r="C2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>150</v>
+      </c>
+      <c r="B2" s="1">
+        <v>103</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>79</v>
-      </c>
-      <c r="B3">
-        <v>90</v>
-      </c>
-      <c r="C3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F3" t="s">
-        <v>156</v>
-      </c>
-      <c r="I3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>80</v>
-      </c>
-      <c r="B4">
-        <v>91</v>
-      </c>
-      <c r="C4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>81</v>
-      </c>
-      <c r="B5">
-        <v>92</v>
-      </c>
-      <c r="C5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F5" t="s">
-        <v>160</v>
-      </c>
-      <c r="I5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>82</v>
-      </c>
-      <c r="B6">
-        <v>93</v>
-      </c>
-      <c r="C6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D6">
+      <c r="F2" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>151</v>
+      </c>
+      <c r="B3" s="1">
+        <v>103</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>182</v>
-      </c>
-      <c r="F6" t="s">
-        <v>162</v>
-      </c>
-      <c r="I6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>152</v>
+      </c>
+      <c r="B4" s="1">
+        <v>103</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>153</v>
+      </c>
+      <c r="B5" s="1">
+        <v>103</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>95</v>
+      </c>
+      <c r="B6" s="1">
+        <f>competency_model!A2</f>
+        <v>100</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>83</v>
-      </c>
-      <c r="B7">
-        <v>94</v>
-      </c>
-      <c r="C7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>183</v>
+        <v>96</v>
+      </c>
+      <c r="B7" s="1">
+        <f>competency_model!A2</f>
+        <v>100</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>164</v>
-      </c>
-      <c r="I7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>84</v>
-      </c>
-      <c r="B8">
-        <v>95</v>
-      </c>
-      <c r="C8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>184</v>
+        <v>97</v>
+      </c>
+      <c r="B8" s="1">
+        <f>competency_model!A2</f>
+        <v>100</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>166</v>
-      </c>
-      <c r="I8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>85</v>
-      </c>
-      <c r="B9">
-        <v>96</v>
-      </c>
-      <c r="C9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>185</v>
+        <v>98</v>
+      </c>
+      <c r="B9" s="1">
+        <f>competency_model!A2</f>
+        <v>100</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>168</v>
-      </c>
-      <c r="I9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="66" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>86</v>
-      </c>
-      <c r="B10">
-        <v>97</v>
-      </c>
-      <c r="C10" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10">
+        <v>99</v>
+      </c>
+      <c r="B10" s="1">
+        <f>competency_model!A2</f>
+        <v>100</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>182</v>
-      </c>
       <c r="F10" t="s">
-        <v>146</v>
-      </c>
-      <c r="I10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="B11">
-        <v>98</v>
-      </c>
-      <c r="C11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>183</v>
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
       </c>
       <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>148</v>
       </c>
-      <c r="I11" t="s">
+      <c r="B12">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>149</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>88</v>
-      </c>
-      <c r="B12">
-        <v>99</v>
-      </c>
-      <c r="C12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>184</v>
-      </c>
-      <c r="F12" t="s">
-        <v>150</v>
-      </c>
-      <c r="I12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>89</v>
-      </c>
       <c r="B13">
-        <v>100</v>
-      </c>
-      <c r="C13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>185</v>
+        <v>55</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>152</v>
-      </c>
-      <c r="I13" t="s">
-        <v>153</v>
+        <v>134</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/import.xlsx
+++ b/import.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" tabRatio="796" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" tabRatio="796" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="competency_dic" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="355">
   <si>
     <t>competency_type</t>
   </si>
@@ -1443,6 +1443,10 @@
   </si>
   <si>
     <t>訓練方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>job_level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2644,7 +2648,7 @@
         <v>353</v>
       </c>
       <c r="F8" t="str">
-        <f>"課程類型"&amp;A8</f>
+        <f t="shared" ref="F8:F17" si="1">"課程類型"&amp;A8</f>
         <v>課程類型30</v>
       </c>
     </row>
@@ -2659,7 +2663,7 @@
         <v>353</v>
       </c>
       <c r="F9" t="str">
-        <f>"課程類型"&amp;A9</f>
+        <f t="shared" si="1"/>
         <v>課程類型31</v>
       </c>
     </row>
@@ -2674,7 +2678,7 @@
         <v>353</v>
       </c>
       <c r="F10" t="str">
-        <f>"課程類型"&amp;A10</f>
+        <f t="shared" si="1"/>
         <v>課程類型32</v>
       </c>
     </row>
@@ -2689,7 +2693,7 @@
         <v>353</v>
       </c>
       <c r="F11" t="str">
-        <f>"課程類型"&amp;A11</f>
+        <f t="shared" si="1"/>
         <v>課程類型33</v>
       </c>
     </row>
@@ -2704,7 +2708,7 @@
         <v>353</v>
       </c>
       <c r="F12" t="str">
-        <f>"課程類型"&amp;A12</f>
+        <f t="shared" si="1"/>
         <v>課程類型34</v>
       </c>
     </row>
@@ -2719,7 +2723,7 @@
         <v>353</v>
       </c>
       <c r="F13" t="str">
-        <f>"課程類型"&amp;A13</f>
+        <f t="shared" si="1"/>
         <v>課程類型35</v>
       </c>
     </row>
@@ -2734,7 +2738,7 @@
         <v>353</v>
       </c>
       <c r="F14" t="str">
-        <f>"課程類型"&amp;A14</f>
+        <f t="shared" si="1"/>
         <v>課程類型36</v>
       </c>
     </row>
@@ -2749,7 +2753,7 @@
         <v>353</v>
       </c>
       <c r="F15" t="str">
-        <f>"課程類型"&amp;A15</f>
+        <f t="shared" si="1"/>
         <v>課程類型37</v>
       </c>
     </row>
@@ -2764,7 +2768,7 @@
         <v>353</v>
       </c>
       <c r="F16" t="str">
-        <f>"課程類型"&amp;A16</f>
+        <f t="shared" si="1"/>
         <v>課程類型38</v>
       </c>
     </row>
@@ -2779,7 +2783,7 @@
         <v>353</v>
       </c>
       <c r="F17" t="str">
-        <f>"課程類型"&amp;A17</f>
+        <f t="shared" si="1"/>
         <v>課程類型39</v>
       </c>
     </row>
@@ -2839,7 +2843,7 @@
         <v>171</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C17" si="0">"訓練講師"&amp;A3</f>
+        <f t="shared" ref="C3:C4" si="0">"訓練講師"&amp;A3</f>
         <v>訓練講師25</v>
       </c>
     </row>
@@ -5388,18 +5392,19 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="5" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>289</v>
       </c>
@@ -5416,10 +5421,13 @@
         <v>292</v>
       </c>
       <c r="F1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5429,12 +5437,12 @@
       <c r="C2" t="s">
         <v>107</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <f>A2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5444,12 +5452,12 @@
       <c r="C3" t="s">
         <v>202</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F39" si="0">A3</f>
+      <c r="G3">
+        <f t="shared" ref="G3:G39" si="0">A3</f>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5459,12 +5467,12 @@
       <c r="C4" t="s">
         <v>194</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5474,12 +5482,12 @@
       <c r="C5" t="s">
         <v>207</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5489,12 +5497,12 @@
       <c r="C6" t="s">
         <v>189</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5504,12 +5512,12 @@
       <c r="C7" t="s">
         <v>111</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5519,12 +5527,12 @@
       <c r="C8" t="s">
         <v>99</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5534,12 +5542,12 @@
       <c r="C9" t="s">
         <v>229</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5549,12 +5557,12 @@
       <c r="C10" t="s">
         <v>232</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5564,12 +5572,12 @@
       <c r="C11" t="s">
         <v>227</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5579,12 +5587,12 @@
       <c r="C12" t="s">
         <v>234</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5594,12 +5602,12 @@
       <c r="C13" t="s">
         <v>233</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5609,12 +5617,12 @@
       <c r="C14" t="s">
         <v>97</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5624,12 +5632,12 @@
       <c r="C15" t="s">
         <v>235</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5639,12 +5647,12 @@
       <c r="C16" t="s">
         <v>110</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5654,12 +5662,12 @@
       <c r="C17" t="s">
         <v>191</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5669,12 +5677,12 @@
       <c r="C18" t="s">
         <v>186</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5684,12 +5692,12 @@
       <c r="C19" t="s">
         <v>185</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5699,12 +5707,12 @@
       <c r="C20" t="s">
         <v>103</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5714,12 +5722,12 @@
       <c r="C21" t="s">
         <v>184</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5729,12 +5737,12 @@
       <c r="C22" t="s">
         <v>183</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5744,12 +5752,12 @@
       <c r="C23" t="s">
         <v>188</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5759,12 +5767,12 @@
       <c r="C24" t="s">
         <v>181</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5774,12 +5782,12 @@
       <c r="C25" t="s">
         <v>106</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5789,12 +5797,12 @@
       <c r="C26" t="s">
         <v>104</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5804,12 +5812,12 @@
       <c r="C27" t="s">
         <v>254</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5819,12 +5827,12 @@
       <c r="C28" t="s">
         <v>252</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5834,12 +5842,12 @@
       <c r="C29" t="s">
         <v>255</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5849,12 +5857,12 @@
       <c r="C30" t="s">
         <v>242</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5864,12 +5872,12 @@
       <c r="C31" t="s">
         <v>241</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5879,12 +5887,12 @@
       <c r="C32" t="s">
         <v>243</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5894,12 +5902,12 @@
       <c r="C33" t="s">
         <v>248</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5909,12 +5917,12 @@
       <c r="C34" t="s">
         <v>109</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5924,12 +5932,12 @@
       <c r="C35" t="s">
         <v>101</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5939,12 +5947,12 @@
       <c r="C36" t="s">
         <v>112</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5954,12 +5962,12 @@
       <c r="C37" t="s">
         <v>100</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5969,12 +5977,12 @@
       <c r="C38" t="s">
         <v>190</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5984,7 +5992,7 @@
       <c r="C39" t="s">
         <v>102</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -6086,8 +6094,8 @@
         <v>285</v>
       </c>
       <c r="J2">
-        <f>VLOOKUP(G2,job!$C$2:$F$1000,4,FALSE)</f>
-        <v>1</v>
+        <f>VLOOKUP(G2,job!$C$2:$G$1000,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="K2">
         <f>VLOOKUP(H2,group_property!$B$2:$C$639,2,FALSE)</f>
@@ -6120,8 +6128,8 @@
         <v>195</v>
       </c>
       <c r="J3">
-        <f>VLOOKUP(G3,job!$C$2:$F$1000,4,FALSE)</f>
-        <v>2</v>
+        <f>VLOOKUP(G3,job!$C$2:$G$1000,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="K3">
         <f>VLOOKUP(H3,group_property!$B$2:$C$639,2,FALSE)</f>
@@ -6154,8 +6162,8 @@
         <v>246</v>
       </c>
       <c r="J4">
-        <f>VLOOKUP(G4,job!$C$2:$F$1000,4,FALSE)</f>
-        <v>3</v>
+        <f>VLOOKUP(G4,job!$C$2:$G$1000,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="K4">
         <f>VLOOKUP(H4,group_property!$B$2:$C$639,2,FALSE)</f>
@@ -6188,8 +6196,8 @@
         <v>251</v>
       </c>
       <c r="J5">
-        <f>VLOOKUP(G5,job!$C$2:$F$1000,4,FALSE)</f>
-        <v>4</v>
+        <f>VLOOKUP(G5,job!$C$2:$G$1000,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="K5">
         <f>VLOOKUP(H5,group_property!$B$2:$C$639,2,FALSE)</f>
@@ -6222,8 +6230,8 @@
         <v>208</v>
       </c>
       <c r="J6">
-        <f>VLOOKUP(G6,job!$C$2:$F$1000,4,FALSE)</f>
-        <v>4</v>
+        <f>VLOOKUP(G6,job!$C$2:$G$1000,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="K6">
         <f>VLOOKUP(H6,group_property!$B$2:$C$639,2,FALSE)</f>
@@ -6256,8 +6264,8 @@
         <v>195</v>
       </c>
       <c r="J7">
-        <f>VLOOKUP(G7,job!$C$2:$F$1000,4,FALSE)</f>
-        <v>3</v>
+        <f>VLOOKUP(G7,job!$C$2:$G$1000,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="K7">
         <f>VLOOKUP(H7,group_property!$B$2:$C$639,2,FALSE)</f>
@@ -6290,8 +6298,8 @@
         <v>195</v>
       </c>
       <c r="J8">
-        <f>VLOOKUP(G8,job!$C$2:$F$1000,4,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(G8,job!$C$2:$G$1000,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="K8">
         <f>VLOOKUP(H8,group_property!$B$2:$C$639,2,FALSE)</f>
@@ -6324,8 +6332,8 @@
         <v>195</v>
       </c>
       <c r="J9">
-        <f>VLOOKUP(G9,job!$C$2:$F$1000,4,FALSE)</f>
-        <v>6</v>
+        <f>VLOOKUP(G9,job!$C$2:$G$1000,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="K9">
         <f>VLOOKUP(H9,group_property!$B$2:$C$639,2,FALSE)</f>
@@ -6358,8 +6366,8 @@
         <v>195</v>
       </c>
       <c r="J10">
-        <f>VLOOKUP(G10,job!$C$2:$F$1000,4,FALSE)</f>
-        <v>2</v>
+        <f>VLOOKUP(G10,job!$C$2:$G$1000,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="K10">
         <f>VLOOKUP(H10,group_property!$B$2:$C$639,2,FALSE)</f>
@@ -6392,8 +6400,8 @@
         <v>260</v>
       </c>
       <c r="J11">
-        <f>VLOOKUP(G11,job!$C$2:$F$1000,4,FALSE)</f>
-        <v>6</v>
+        <f>VLOOKUP(G11,job!$C$2:$G$1000,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="K11">
         <f>VLOOKUP(H11,group_property!$B$2:$C$639,2,FALSE)</f>
@@ -6426,8 +6434,8 @@
         <v>195</v>
       </c>
       <c r="J12">
-        <f>VLOOKUP(G12,job!$C$2:$F$1000,4,FALSE)</f>
-        <v>2</v>
+        <f>VLOOKUP(G12,job!$C$2:$G$1000,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="K12">
         <f>VLOOKUP(H12,group_property!$B$2:$C$639,2,FALSE)</f>
@@ -6460,8 +6468,8 @@
         <v>195</v>
       </c>
       <c r="J13">
-        <f>VLOOKUP(G13,job!$C$2:$F$1000,4,FALSE)</f>
-        <v>2</v>
+        <f>VLOOKUP(G13,job!$C$2:$G$1000,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="K13">
         <f>VLOOKUP(H13,group_property!$B$2:$C$639,2,FALSE)</f>
@@ -6494,8 +6502,8 @@
         <v>195</v>
       </c>
       <c r="J14">
-        <f>VLOOKUP(G14,job!$C$2:$F$1000,4,FALSE)</f>
-        <v>2</v>
+        <f>VLOOKUP(G14,job!$C$2:$G$1000,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="K14">
         <f>VLOOKUP(H14,group_property!$B$2:$C$639,2,FALSE)</f>
@@ -6528,8 +6536,8 @@
         <v>195</v>
       </c>
       <c r="J15">
-        <f>VLOOKUP(G15,job!$C$2:$F$1000,4,FALSE)</f>
-        <v>2</v>
+        <f>VLOOKUP(G15,job!$C$2:$G$1000,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="K15">
         <f>VLOOKUP(H15,group_property!$B$2:$C$639,2,FALSE)</f>
@@ -6562,8 +6570,8 @@
         <v>221</v>
       </c>
       <c r="J16">
-        <f>VLOOKUP(G16,job!$C$2:$F$1000,4,FALSE)</f>
-        <v>7</v>
+        <f>VLOOKUP(G16,job!$C$2:$G$1000,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="K16">
         <f>VLOOKUP(H16,group_property!$B$2:$C$639,2,FALSE)</f>
@@ -6596,8 +6604,8 @@
         <v>228</v>
       </c>
       <c r="J17">
-        <f>VLOOKUP(G17,job!$C$2:$F$1000,4,FALSE)</f>
-        <v>8</v>
+        <f>VLOOKUP(G17,job!$C$2:$G$1000,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="K17">
         <f>VLOOKUP(H17,group_property!$B$2:$C$639,2,FALSE)</f>
@@ -6630,8 +6638,8 @@
         <v>228</v>
       </c>
       <c r="J18">
-        <f>VLOOKUP(G18,job!$C$2:$F$1000,4,FALSE)</f>
-        <v>8</v>
+        <f>VLOOKUP(G18,job!$C$2:$G$1000,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="K18">
         <f>VLOOKUP(H18,group_property!$B$2:$C$639,2,FALSE)</f>
@@ -6664,8 +6672,8 @@
         <v>226</v>
       </c>
       <c r="J19">
-        <f>VLOOKUP(G19,job!$C$2:$F$1000,4,FALSE)</f>
-        <v>6</v>
+        <f>VLOOKUP(G19,job!$C$2:$G$1000,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="K19">
         <f>VLOOKUP(H19,group_property!$B$2:$C$639,2,FALSE)</f>
@@ -6698,8 +6706,8 @@
         <v>226</v>
       </c>
       <c r="J20">
-        <f>VLOOKUP(G20,job!$C$2:$F$1000,4,FALSE)</f>
-        <v>9</v>
+        <f>VLOOKUP(G20,job!$C$2:$G$1000,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="K20">
         <f>VLOOKUP(H20,group_property!$B$2:$C$639,2,FALSE)</f>
@@ -9758,7 +9766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>

--- a/import.xlsx
+++ b/import.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" tabRatio="796" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" tabRatio="942" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="competency_dic" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="400">
   <si>
     <t>competency_type</t>
   </si>
@@ -1447,6 +1447,170 @@
   </si>
   <si>
     <t>job_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專業職能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出貨明細作業</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接收生管出貨單通知或變更.能準確及時提供檢貨單和列印出貨外箱標籤 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">接收品包入庫產品及各單位需求調撥庫存出貨及提供樣品進出倉庫作業 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">從進庫到出庫物品維護及減少呆滯品 </t>
+  </si>
+  <si>
+    <t>內銷快遞作業</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接收生管出貨單通知或變更.能準確及時提供檢貨單和列印出貨外箱標籤.並獨立完成裝箱出貨 </t>
+  </si>
+  <si>
+    <t>調撥扣帳作業</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接收生管及各單位需求調撥庫存出貨及提供樣品.基本財務調帳觀念 </t>
+  </si>
+  <si>
+    <t>印標包裝作業</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接收庫存出貨通知單列印產品識別標籤.將庫存產品包裝出貨 </t>
+  </si>
+  <si>
+    <t>中山理貨作業</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接收生管採購入庫單列印移交單標籤.並完成理貨作業 </t>
+  </si>
+  <si>
+    <t>庫存進出作業</t>
+  </si>
+  <si>
+    <t>裝箱打板作業</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接收檢貨單及外箱標籤.將待出貨區產品裝箱打板出貨 </t>
+  </si>
+  <si>
+    <t>管理庫存作業</t>
+  </si>
+  <si>
+    <t>組級/課級</t>
+  </si>
+  <si>
+    <t>第3級</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.實際工作執行
+2.績效與表現
+3.日常作業觀察
+</t>
+  </si>
+  <si>
+    <t>指派輔導員       日常作業及自我學習               特殊派遣學習</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.需具備二級能力。            2.有能力檢查人員作業的正確性                 3.有能力教導別人
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.實際工作執行
+2.績效與表現
+3.日常作業觀察
+</t>
+  </si>
+  <si>
+    <t>第 1 級</t>
+  </si>
+  <si>
+    <t>第 2 級</t>
+  </si>
+  <si>
+    <t>課級/理級</t>
+  </si>
+  <si>
+    <t>1.實際工作執行
+2.績效與表現
+3.日常作業觀察4.案例處理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.建立與維護產品的裝箱包裝指示及SAP系統資料。
+2.了解客戶的裝箱、裝箱明細製作。
+3.了解SAP-SD+MM模組概念與基本操作
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.熟知出貨相關流程
+2.能熟練執行SAP-SD+MM模組程式與應用
+3.能製作SD相關SOP及新人教育。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.需具備二級能力。            2.有能力檢查人員作業的正確性性                 3.有能力教導別人
+</t>
+  </si>
+  <si>
+    <t>1.了解客戶的要求、裝箱明細製作                            2.了解裝箱作業流程。
+3.了解SAP-SD+MM模組概念與基本操作。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.熟知出貨相關流程
+2.能獨立處理出貨相關事宜。3.能熟練執行SAP-SD+MM模組程式與應用
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.了解SAP-SD+MM模組概念與基本操作。                           2.了解電腦文書處理作業                               3.了解產品印標、包裝及轉站流程。4.了解料件保存期限與保存條件規範
+</t>
+  </si>
+  <si>
+    <t>1.熟知調撥扣帳相關流程
+2.能製作SD、MM相關SOP及新人教育                   3.能熟練執行SAP-SD+MM模組程式與應用
+。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.了解SAP-SD+MM模組概念與基本操作。                                   2.了解產品印標、包裝及轉站流程。                                      
+</t>
+  </si>
+  <si>
+    <t>1.熟知印標包裝相關流程       2.能製作SD、MM相關SOP及新人教育                   3.能熟練執行SAP-SD+MM模組程式與應用               。</t>
+  </si>
+  <si>
+    <t>分級制管理職能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 3 級</t>
+  </si>
+  <si>
+    <t>第 4 級</t>
+  </si>
+  <si>
+    <t>按計劃制定任務、執行任務</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1533,12 +1697,64 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1547,7 +1763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1604,6 +1820,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2061,16 +2289,22 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="6" max="7" width="1.75" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="41.875" customWidth="1"/>
+    <col min="12" max="13" width="35.5" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -2122,7 +2356,7 @@
         <v>150</v>
       </c>
       <c r="C2" s="18" t="str">
-        <f>VLOOKUP(B2,competency!$A$2:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B2,competency!$A$2:$F$995,6,FALSE)</f>
         <v>通用職能A</v>
       </c>
       <c r="D2">
@@ -2146,7 +2380,7 @@
         <v>150</v>
       </c>
       <c r="C3" s="18" t="str">
-        <f>VLOOKUP(B3,competency!$A$2:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B3,competency!$A$2:$F$995,6,FALSE)</f>
         <v>通用職能A</v>
       </c>
       <c r="D3">
@@ -2170,7 +2404,7 @@
         <v>150</v>
       </c>
       <c r="C4" s="18" t="str">
-        <f>VLOOKUP(B4,competency!$A$2:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B4,competency!$A$2:$F$995,6,FALSE)</f>
         <v>通用職能A</v>
       </c>
       <c r="D4">
@@ -2194,7 +2428,7 @@
         <v>150</v>
       </c>
       <c r="C5" s="18" t="str">
-        <f>VLOOKUP(B5,competency!$A$2:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B5,competency!$A$2:$F$995,6,FALSE)</f>
         <v>通用職能A</v>
       </c>
       <c r="D5">
@@ -2218,7 +2452,7 @@
         <v>151</v>
       </c>
       <c r="C6" s="18" t="str">
-        <f>VLOOKUP(B6,competency!$A$2:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B6,competency!$A$2:$F$995,6,FALSE)</f>
         <v>通用職能B</v>
       </c>
       <c r="D6">
@@ -2242,7 +2476,7 @@
         <v>151</v>
       </c>
       <c r="C7" s="18" t="str">
-        <f>VLOOKUP(B7,competency!$A$2:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B7,competency!$A$2:$F$995,6,FALSE)</f>
         <v>通用職能B</v>
       </c>
       <c r="D7">
@@ -2266,7 +2500,7 @@
         <v>151</v>
       </c>
       <c r="C8" s="18" t="str">
-        <f>VLOOKUP(B8,competency!$A$2:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B8,competency!$A$2:$F$995,6,FALSE)</f>
         <v>通用職能B</v>
       </c>
       <c r="D8">
@@ -2290,7 +2524,7 @@
         <v>151</v>
       </c>
       <c r="C9" s="18" t="str">
-        <f>VLOOKUP(B9,competency!$A$2:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B9,competency!$A$2:$F$995,6,FALSE)</f>
         <v>通用職能B</v>
       </c>
       <c r="D9">
@@ -2314,7 +2548,7 @@
         <v>152</v>
       </c>
       <c r="C10" s="18" t="str">
-        <f>VLOOKUP(B10,competency!$A$2:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B10,competency!$A$2:$F$995,6,FALSE)</f>
         <v>通用職能C</v>
       </c>
       <c r="D10">
@@ -2338,7 +2572,7 @@
         <v>152</v>
       </c>
       <c r="C11" s="18" t="str">
-        <f>VLOOKUP(B11,competency!$A$2:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B11,competency!$A$2:$F$995,6,FALSE)</f>
         <v>通用職能C</v>
       </c>
       <c r="D11">
@@ -2362,7 +2596,7 @@
         <v>152</v>
       </c>
       <c r="C12" s="18" t="str">
-        <f>VLOOKUP(B12,competency!$A$2:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B12,competency!$A$2:$F$995,6,FALSE)</f>
         <v>通用職能C</v>
       </c>
       <c r="D12">
@@ -2386,7 +2620,7 @@
         <v>152</v>
       </c>
       <c r="C13" s="18" t="str">
-        <f>VLOOKUP(B13,competency!$A$2:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B13,competency!$A$2:$F$995,6,FALSE)</f>
         <v>通用職能C</v>
       </c>
       <c r="D13">
@@ -2410,7 +2644,7 @@
         <v>153</v>
       </c>
       <c r="C14" s="18" t="str">
-        <f>VLOOKUP(B14,competency!$A$2:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B14,competency!$A$2:$F$995,6,FALSE)</f>
         <v>通用職能D</v>
       </c>
       <c r="D14">
@@ -2434,7 +2668,7 @@
         <v>153</v>
       </c>
       <c r="C15" s="18" t="str">
-        <f>VLOOKUP(B15,competency!$A$2:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B15,competency!$A$2:$F$995,6,FALSE)</f>
         <v>通用職能D</v>
       </c>
       <c r="D15">
@@ -2458,7 +2692,7 @@
         <v>153</v>
       </c>
       <c r="C16" s="18" t="str">
-        <f>VLOOKUP(B16,competency!$A$2:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B16,competency!$A$2:$F$995,6,FALSE)</f>
         <v>通用職能D</v>
       </c>
       <c r="D16">
@@ -2482,7 +2716,7 @@
         <v>153</v>
       </c>
       <c r="C17" s="18" t="str">
-        <f>VLOOKUP(B17,competency!$A$2:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B17,competency!$A$2:$F$995,6,FALSE)</f>
         <v>通用職能D</v>
       </c>
       <c r="D17">
@@ -2495,6 +2729,582 @@
         <v>340</v>
       </c>
       <c r="K17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>185</v>
+      </c>
+      <c r="B18">
+        <v>154</v>
+      </c>
+      <c r="C18" s="18" t="str">
+        <f>VLOOKUP(B18,competency!$A$2:$F$995,6,FALSE)</f>
+        <v>出貨明細作業</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>382</v>
+      </c>
+      <c r="H18" t="s">
+        <v>376</v>
+      </c>
+      <c r="K18" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>186</v>
+      </c>
+      <c r="B19">
+        <v>154</v>
+      </c>
+      <c r="C19" s="18" t="str">
+        <f>VLOOKUP(B19,competency!$A$2:$F$995,6,FALSE)</f>
+        <v>出貨明細作業</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>383</v>
+      </c>
+      <c r="H19" t="s">
+        <v>376</v>
+      </c>
+      <c r="K19" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>187</v>
+      </c>
+      <c r="B20">
+        <v>154</v>
+      </c>
+      <c r="C20" s="18" t="str">
+        <f>VLOOKUP(B20,competency!$A$2:$F$995,6,FALSE)</f>
+        <v>出貨明細作業</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>377</v>
+      </c>
+      <c r="H20" t="s">
+        <v>384</v>
+      </c>
+      <c r="K20" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>188</v>
+      </c>
+      <c r="B21">
+        <v>155</v>
+      </c>
+      <c r="C21" s="18" t="str">
+        <f>VLOOKUP(B21,competency!$A$2:$F$995,6,FALSE)</f>
+        <v>內銷快遞作業</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>382</v>
+      </c>
+      <c r="H21" t="s">
+        <v>376</v>
+      </c>
+      <c r="K21" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>189</v>
+      </c>
+      <c r="B22">
+        <v>155</v>
+      </c>
+      <c r="C22" s="18" t="str">
+        <f>VLOOKUP(B22,competency!$A$2:$F$995,6,FALSE)</f>
+        <v>內銷快遞作業</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>383</v>
+      </c>
+      <c r="H22" t="s">
+        <v>376</v>
+      </c>
+      <c r="K22" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>190</v>
+      </c>
+      <c r="B23">
+        <v>155</v>
+      </c>
+      <c r="C23" s="18" t="str">
+        <f>VLOOKUP(B23,competency!$A$2:$F$995,6,FALSE)</f>
+        <v>內銷快遞作業</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>377</v>
+      </c>
+      <c r="H23" t="s">
+        <v>385</v>
+      </c>
+      <c r="K23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>191</v>
+      </c>
+      <c r="B24">
+        <v>156</v>
+      </c>
+      <c r="C24" s="18" t="str">
+        <f>VLOOKUP(B24,competency!$A$2:$F$995,6,FALSE)</f>
+        <v>調撥扣帳作業</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>382</v>
+      </c>
+      <c r="H24" t="s">
+        <v>376</v>
+      </c>
+      <c r="K24" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>192</v>
+      </c>
+      <c r="B25">
+        <v>156</v>
+      </c>
+      <c r="C25" s="18" t="str">
+        <f>VLOOKUP(B25,competency!$A$2:$F$995,6,FALSE)</f>
+        <v>調撥扣帳作業</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>383</v>
+      </c>
+      <c r="H25" t="s">
+        <v>376</v>
+      </c>
+      <c r="K25" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>193</v>
+      </c>
+      <c r="B26">
+        <v>156</v>
+      </c>
+      <c r="C26" s="18" t="str">
+        <f>VLOOKUP(B26,competency!$A$2:$F$995,6,FALSE)</f>
+        <v>調撥扣帳作業</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>377</v>
+      </c>
+      <c r="H26" t="s">
+        <v>385</v>
+      </c>
+      <c r="K26" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>194</v>
+      </c>
+      <c r="B27">
+        <v>157</v>
+      </c>
+      <c r="C27" s="18" t="str">
+        <f>VLOOKUP(B27,competency!$A$2:$F$995,6,FALSE)</f>
+        <v>印標包裝作業</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>382</v>
+      </c>
+      <c r="H27" t="s">
+        <v>376</v>
+      </c>
+      <c r="K27" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>195</v>
+      </c>
+      <c r="B28">
+        <v>157</v>
+      </c>
+      <c r="C28" s="18" t="str">
+        <f>VLOOKUP(B28,competency!$A$2:$F$995,6,FALSE)</f>
+        <v>印標包裝作業</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>383</v>
+      </c>
+      <c r="H28" t="s">
+        <v>376</v>
+      </c>
+      <c r="K28" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>196</v>
+      </c>
+      <c r="B29">
+        <v>157</v>
+      </c>
+      <c r="C29" s="18" t="str">
+        <f>VLOOKUP(B29,competency!$A$2:$F$995,6,FALSE)</f>
+        <v>印標包裝作業</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>377</v>
+      </c>
+      <c r="H29" t="s">
+        <v>385</v>
+      </c>
+      <c r="K29" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>197</v>
+      </c>
+      <c r="B30">
+        <v>147</v>
+      </c>
+      <c r="C30" s="18" t="str">
+        <f>VLOOKUP(B30,competency!$A$2:$F$995,6,FALSE)</f>
+        <v>戰略思維</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>382</v>
+      </c>
+      <c r="H30" t="s">
+        <v>340</v>
+      </c>
+      <c r="K30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>198</v>
+      </c>
+      <c r="B31">
+        <v>147</v>
+      </c>
+      <c r="C31" s="18" t="str">
+        <f>VLOOKUP(B31,competency!$A$2:$F$995,6,FALSE)</f>
+        <v>戰略思維</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>383</v>
+      </c>
+      <c r="H31" t="s">
+        <v>340</v>
+      </c>
+      <c r="K31" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>199</v>
+      </c>
+      <c r="B32">
+        <v>147</v>
+      </c>
+      <c r="C32" s="18" t="str">
+        <f>VLOOKUP(B32,competency!$A$2:$F$995,6,FALSE)</f>
+        <v>戰略思維</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H32" t="s">
+        <v>340</v>
+      </c>
+      <c r="K32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>200</v>
+      </c>
+      <c r="B33">
+        <v>147</v>
+      </c>
+      <c r="C33" s="18" t="str">
+        <f>VLOOKUP(B33,competency!$A$2:$F$995,6,FALSE)</f>
+        <v>戰略思維</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>398</v>
+      </c>
+      <c r="H33" t="s">
+        <v>340</v>
+      </c>
+      <c r="K33" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>201</v>
+      </c>
+      <c r="B34">
+        <v>148</v>
+      </c>
+      <c r="C34" s="18" t="str">
+        <f>VLOOKUP(B34,competency!$A$2:$F$995,6,FALSE)</f>
+        <v>高效執行</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>382</v>
+      </c>
+      <c r="H34" t="s">
+        <v>340</v>
+      </c>
+      <c r="K34" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>202</v>
+      </c>
+      <c r="B35">
+        <v>148</v>
+      </c>
+      <c r="C35" s="18" t="str">
+        <f>VLOOKUP(B35,competency!$A$2:$F$995,6,FALSE)</f>
+        <v>高效執行</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>383</v>
+      </c>
+      <c r="H35" t="s">
+        <v>340</v>
+      </c>
+      <c r="K35" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>203</v>
+      </c>
+      <c r="B36">
+        <v>148</v>
+      </c>
+      <c r="C36" s="18" t="str">
+        <f>VLOOKUP(B36,competency!$A$2:$F$995,6,FALSE)</f>
+        <v>高效執行</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>397</v>
+      </c>
+      <c r="H36" t="s">
+        <v>340</v>
+      </c>
+      <c r="K36" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>204</v>
+      </c>
+      <c r="B37">
+        <v>148</v>
+      </c>
+      <c r="C37" s="18" t="str">
+        <f>VLOOKUP(B37,competency!$A$2:$F$995,6,FALSE)</f>
+        <v>高效執行</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>398</v>
+      </c>
+      <c r="H37" t="s">
+        <v>340</v>
+      </c>
+      <c r="K37" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>205</v>
+      </c>
+      <c r="B38">
+        <v>149</v>
+      </c>
+      <c r="C38" s="18" t="str">
+        <f>VLOOKUP(B38,competency!$A$2:$F$995,6,FALSE)</f>
+        <v>決斷力</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>382</v>
+      </c>
+      <c r="H38" t="s">
+        <v>340</v>
+      </c>
+      <c r="K38" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>206</v>
+      </c>
+      <c r="B39">
+        <v>149</v>
+      </c>
+      <c r="C39" s="18" t="str">
+        <f>VLOOKUP(B39,competency!$A$2:$F$995,6,FALSE)</f>
+        <v>決斷力</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>383</v>
+      </c>
+      <c r="H39" t="s">
+        <v>340</v>
+      </c>
+      <c r="K39" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>207</v>
+      </c>
+      <c r="B40">
+        <v>149</v>
+      </c>
+      <c r="C40" s="18" t="str">
+        <f>VLOOKUP(B40,competency!$A$2:$F$995,6,FALSE)</f>
+        <v>決斷力</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>397</v>
+      </c>
+      <c r="H40" t="s">
+        <v>340</v>
+      </c>
+      <c r="K40" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>208</v>
+      </c>
+      <c r="B41">
+        <v>149</v>
+      </c>
+      <c r="C41" s="18" t="str">
+        <f>VLOOKUP(B41,competency!$A$2:$F$995,6,FALSE)</f>
+        <v>決斷力</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41" t="s">
+        <v>398</v>
+      </c>
+      <c r="H41" t="s">
+        <v>340</v>
+      </c>
+      <c r="K41" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3425,10 +4235,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3439,8 +4249,8 @@
     <col min="4" max="4" width="20.625" style="16" customWidth="1"/>
     <col min="5" max="5" width="11.25" style="16" customWidth="1"/>
     <col min="6" max="6" width="34.875" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="24.375" customWidth="1"/>
+    <col min="7" max="7" width="20.5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="24.375" hidden="1" customWidth="1"/>
     <col min="9" max="11" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3487,15 +4297,15 @@
         <v>134</v>
       </c>
       <c r="C2" s="16" t="e">
-        <f>VLOOKUP(B2,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <f>VLOOKUP(B2,competency_level!$A$2:$F$883,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D2" s="16" t="e">
-        <f>VLOOKUP(B2,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <f>VLOOKUP(B2,competency_level!$A$2:$F$883,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E2" s="16" t="e">
-        <f>VLOOKUP(B2,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <f>VLOOKUP(B2,competency_level!$A$2:$F$883,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F2" t="s">
@@ -3513,15 +4323,15 @@
         <v>135</v>
       </c>
       <c r="C3" s="16" t="e">
-        <f>VLOOKUP(B3,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <f>VLOOKUP(B3,competency_level!$A$2:$F$883,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D3" s="16" t="e">
-        <f>VLOOKUP(B3,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <f>VLOOKUP(B3,competency_level!$A$2:$F$883,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E3" s="16" t="e">
-        <f>VLOOKUP(B3,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <f>VLOOKUP(B3,competency_level!$A$2:$F$883,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F3" t="s">
@@ -3539,15 +4349,15 @@
         <v>136</v>
       </c>
       <c r="C4" s="16" t="e">
-        <f>VLOOKUP(B4,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <f>VLOOKUP(B4,competency_level!$A$2:$F$883,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D4" s="16" t="e">
-        <f>VLOOKUP(B4,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <f>VLOOKUP(B4,competency_level!$A$2:$F$883,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E4" s="16" t="e">
-        <f>VLOOKUP(B4,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <f>VLOOKUP(B4,competency_level!$A$2:$F$883,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F4" t="s">
@@ -3565,15 +4375,15 @@
         <v>137</v>
       </c>
       <c r="C5" s="16" t="e">
-        <f>VLOOKUP(B5,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <f>VLOOKUP(B5,competency_level!$A$2:$F$883,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D5" s="16" t="e">
-        <f>VLOOKUP(B5,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <f>VLOOKUP(B5,competency_level!$A$2:$F$883,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E5" s="16" t="e">
-        <f>VLOOKUP(B5,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <f>VLOOKUP(B5,competency_level!$A$2:$F$883,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F5" t="s">
@@ -3591,15 +4401,15 @@
         <v>138</v>
       </c>
       <c r="C6" s="16" t="e">
-        <f>VLOOKUP(B6,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <f>VLOOKUP(B6,competency_level!$A$2:$F$883,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D6" s="16" t="e">
-        <f>VLOOKUP(B6,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <f>VLOOKUP(B6,competency_level!$A$2:$F$883,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E6" s="16" t="e">
-        <f>VLOOKUP(B6,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <f>VLOOKUP(B6,competency_level!$A$2:$F$883,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F6" t="s">
@@ -3617,15 +4427,15 @@
         <v>139</v>
       </c>
       <c r="C7" s="16" t="e">
-        <f>VLOOKUP(B7,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <f>VLOOKUP(B7,competency_level!$A$2:$F$883,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D7" s="16" t="e">
-        <f>VLOOKUP(B7,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <f>VLOOKUP(B7,competency_level!$A$2:$F$883,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E7" s="16" t="e">
-        <f>VLOOKUP(B7,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <f>VLOOKUP(B7,competency_level!$A$2:$F$883,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F7" t="s">
@@ -3643,15 +4453,15 @@
         <v>140</v>
       </c>
       <c r="C8" s="16" t="e">
-        <f>VLOOKUP(B8,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <f>VLOOKUP(B8,competency_level!$A$2:$F$883,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D8" s="16" t="e">
-        <f>VLOOKUP(B8,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <f>VLOOKUP(B8,competency_level!$A$2:$F$883,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E8" s="16" t="e">
-        <f>VLOOKUP(B8,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <f>VLOOKUP(B8,competency_level!$A$2:$F$883,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F8" t="s">
@@ -3669,15 +4479,15 @@
         <v>141</v>
       </c>
       <c r="C9" s="16" t="e">
-        <f>VLOOKUP(B9,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <f>VLOOKUP(B9,competency_level!$A$2:$F$883,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D9" s="16" t="e">
-        <f>VLOOKUP(B9,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <f>VLOOKUP(B9,competency_level!$A$2:$F$883,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E9" s="16" t="e">
-        <f>VLOOKUP(B9,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <f>VLOOKUP(B9,competency_level!$A$2:$F$883,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F9" t="s">
@@ -3695,15 +4505,15 @@
         <v>142</v>
       </c>
       <c r="C10" s="16" t="e">
-        <f>VLOOKUP(B10,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <f>VLOOKUP(B10,competency_level!$A$2:$F$883,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D10" s="16" t="e">
-        <f>VLOOKUP(B10,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <f>VLOOKUP(B10,competency_level!$A$2:$F$883,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E10" s="16" t="e">
-        <f>VLOOKUP(B10,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <f>VLOOKUP(B10,competency_level!$A$2:$F$883,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F10" t="s">
@@ -3721,15 +4531,15 @@
         <v>143</v>
       </c>
       <c r="C11" s="16" t="e">
-        <f>VLOOKUP(B11,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <f>VLOOKUP(B11,competency_level!$A$2:$F$883,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D11" s="16" t="e">
-        <f>VLOOKUP(B11,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <f>VLOOKUP(B11,competency_level!$A$2:$F$883,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E11" s="16" t="e">
-        <f>VLOOKUP(B11,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <f>VLOOKUP(B11,competency_level!$A$2:$F$883,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F11" t="s">
@@ -3747,15 +4557,15 @@
         <v>144</v>
       </c>
       <c r="C12" s="16" t="e">
-        <f>VLOOKUP(B12,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <f>VLOOKUP(B12,competency_level!$A$2:$F$883,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D12" s="16" t="e">
-        <f>VLOOKUP(B12,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <f>VLOOKUP(B12,competency_level!$A$2:$F$883,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E12" s="16" t="e">
-        <f>VLOOKUP(B12,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <f>VLOOKUP(B12,competency_level!$A$2:$F$883,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F12" t="s">
@@ -3773,15 +4583,15 @@
         <v>145</v>
       </c>
       <c r="C13" s="16" t="e">
-        <f>VLOOKUP(B13,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <f>VLOOKUP(B13,competency_level!$A$2:$F$883,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D13" s="16" t="e">
-        <f>VLOOKUP(B13,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <f>VLOOKUP(B13,competency_level!$A$2:$F$883,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E13" s="16" t="e">
-        <f>VLOOKUP(B13,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <f>VLOOKUP(B13,competency_level!$A$2:$F$883,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F13" t="s">
@@ -3799,15 +4609,15 @@
         <v>170</v>
       </c>
       <c r="C14" s="16">
-        <f>VLOOKUP(B14,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <f>VLOOKUP(B14,competency_level!$A$2:$F$883,2,FALSE)</f>
         <v>150</v>
       </c>
       <c r="D14" s="16">
-        <f>VLOOKUP(B14,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <f>VLOOKUP(B14,competency_level!$A$2:$F$883,4,FALSE)</f>
         <v>1</v>
       </c>
       <c r="E14" s="16" t="str">
-        <f>VLOOKUP(B14,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <f>VLOOKUP(B14,competency_level!$A$2:$F$883,5,FALSE)</f>
         <v>等級1</v>
       </c>
       <c r="F14" t="str">
@@ -3827,15 +4637,15 @@
         <v>170</v>
       </c>
       <c r="C15" s="16">
-        <f>VLOOKUP(B15,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <f>VLOOKUP(B15,competency_level!$A$2:$F$883,2,FALSE)</f>
         <v>150</v>
       </c>
       <c r="D15" s="16">
-        <f>VLOOKUP(B15,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <f>VLOOKUP(B15,competency_level!$A$2:$F$883,4,FALSE)</f>
         <v>1</v>
       </c>
       <c r="E15" s="16" t="str">
-        <f>VLOOKUP(B15,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <f>VLOOKUP(B15,competency_level!$A$2:$F$883,5,FALSE)</f>
         <v>等級1</v>
       </c>
       <c r="F15" t="str">
@@ -3855,15 +4665,15 @@
         <v>171</v>
       </c>
       <c r="C16" s="16">
-        <f>VLOOKUP(B16,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <f>VLOOKUP(B16,competency_level!$A$2:$F$883,2,FALSE)</f>
         <v>150</v>
       </c>
       <c r="D16" s="16">
-        <f>VLOOKUP(B16,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <f>VLOOKUP(B16,competency_level!$A$2:$F$883,4,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E16" s="16" t="str">
-        <f>VLOOKUP(B16,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <f>VLOOKUP(B16,competency_level!$A$2:$F$883,5,FALSE)</f>
         <v>等級2</v>
       </c>
       <c r="F16" t="str">
@@ -3883,15 +4693,15 @@
         <v>171</v>
       </c>
       <c r="C17" s="16">
-        <f>VLOOKUP(B17,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <f>VLOOKUP(B17,competency_level!$A$2:$F$883,2,FALSE)</f>
         <v>150</v>
       </c>
       <c r="D17" s="16">
-        <f>VLOOKUP(B17,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <f>VLOOKUP(B17,competency_level!$A$2:$F$883,4,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E17" s="16" t="str">
-        <f>VLOOKUP(B17,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <f>VLOOKUP(B17,competency_level!$A$2:$F$883,5,FALSE)</f>
         <v>等級2</v>
       </c>
       <c r="F17" t="str">
@@ -3911,15 +4721,15 @@
         <v>171</v>
       </c>
       <c r="C18" s="16">
-        <f>VLOOKUP(B18,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <f>VLOOKUP(B18,competency_level!$A$2:$F$883,2,FALSE)</f>
         <v>150</v>
       </c>
       <c r="D18" s="16">
-        <f>VLOOKUP(B18,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <f>VLOOKUP(B18,competency_level!$A$2:$F$883,4,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E18" s="16" t="str">
-        <f>VLOOKUP(B18,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <f>VLOOKUP(B18,competency_level!$A$2:$F$883,5,FALSE)</f>
         <v>等級2</v>
       </c>
       <c r="F18" t="str">
@@ -3939,15 +4749,15 @@
         <v>173</v>
       </c>
       <c r="C19" s="16">
-        <f>VLOOKUP(B19,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <f>VLOOKUP(B19,competency_level!$A$2:$F$883,2,FALSE)</f>
         <v>150</v>
       </c>
       <c r="D19" s="16">
-        <f>VLOOKUP(B19,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <f>VLOOKUP(B19,competency_level!$A$2:$F$883,4,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E19" s="16" t="str">
-        <f>VLOOKUP(B19,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <f>VLOOKUP(B19,competency_level!$A$2:$F$883,5,FALSE)</f>
         <v>等級4</v>
       </c>
       <c r="F19" t="str">
@@ -3967,15 +4777,15 @@
         <v>174</v>
       </c>
       <c r="C20" s="16">
-        <f>VLOOKUP(B20,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <f>VLOOKUP(B20,competency_level!$A$2:$F$883,2,FALSE)</f>
         <v>151</v>
       </c>
       <c r="D20" s="16">
-        <f>VLOOKUP(B20,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <f>VLOOKUP(B20,competency_level!$A$2:$F$883,4,FALSE)</f>
         <v>1</v>
       </c>
       <c r="E20" s="16" t="str">
-        <f>VLOOKUP(B20,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <f>VLOOKUP(B20,competency_level!$A$2:$F$883,5,FALSE)</f>
         <v>等級1</v>
       </c>
       <c r="F20" t="str">
@@ -3995,15 +4805,15 @@
         <v>175</v>
       </c>
       <c r="C21" s="16">
-        <f>VLOOKUP(B21,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <f>VLOOKUP(B21,competency_level!$A$2:$F$883,2,FALSE)</f>
         <v>151</v>
       </c>
       <c r="D21" s="16">
-        <f>VLOOKUP(B21,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <f>VLOOKUP(B21,competency_level!$A$2:$F$883,4,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E21" s="16" t="str">
-        <f>VLOOKUP(B21,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <f>VLOOKUP(B21,competency_level!$A$2:$F$883,5,FALSE)</f>
         <v>等級2</v>
       </c>
       <c r="F21" t="str">
@@ -4023,15 +4833,15 @@
         <v>176</v>
       </c>
       <c r="C22" s="16">
-        <f>VLOOKUP(B22,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <f>VLOOKUP(B22,competency_level!$A$2:$F$883,2,FALSE)</f>
         <v>151</v>
       </c>
       <c r="D22" s="16">
-        <f>VLOOKUP(B22,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <f>VLOOKUP(B22,competency_level!$A$2:$F$883,4,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E22" s="16" t="str">
-        <f>VLOOKUP(B22,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <f>VLOOKUP(B22,competency_level!$A$2:$F$883,5,FALSE)</f>
         <v>等級3</v>
       </c>
       <c r="F22" t="str">
@@ -4051,15 +4861,15 @@
         <v>177</v>
       </c>
       <c r="C23" s="16">
-        <f>VLOOKUP(B23,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <f>VLOOKUP(B23,competency_level!$A$2:$F$883,2,FALSE)</f>
         <v>151</v>
       </c>
       <c r="D23" s="16">
-        <f>VLOOKUP(B23,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <f>VLOOKUP(B23,competency_level!$A$2:$F$883,4,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E23" s="16" t="str">
-        <f>VLOOKUP(B23,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <f>VLOOKUP(B23,competency_level!$A$2:$F$883,5,FALSE)</f>
         <v>等級4</v>
       </c>
       <c r="F23" t="str">
@@ -4079,15 +4889,15 @@
         <v>178</v>
       </c>
       <c r="C24" s="16">
-        <f>VLOOKUP(B24,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <f>VLOOKUP(B24,competency_level!$A$2:$F$883,2,FALSE)</f>
         <v>152</v>
       </c>
       <c r="D24" s="16">
-        <f>VLOOKUP(B24,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <f>VLOOKUP(B24,competency_level!$A$2:$F$883,4,FALSE)</f>
         <v>1</v>
       </c>
       <c r="E24" s="16" t="str">
-        <f>VLOOKUP(B24,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <f>VLOOKUP(B24,competency_level!$A$2:$F$883,5,FALSE)</f>
         <v>等級1</v>
       </c>
       <c r="F24" t="str">
@@ -4107,15 +4917,15 @@
         <v>179</v>
       </c>
       <c r="C25" s="16">
-        <f>VLOOKUP(B25,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <f>VLOOKUP(B25,competency_level!$A$2:$F$883,2,FALSE)</f>
         <v>152</v>
       </c>
       <c r="D25" s="16">
-        <f>VLOOKUP(B25,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <f>VLOOKUP(B25,competency_level!$A$2:$F$883,4,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E25" s="16" t="str">
-        <f>VLOOKUP(B25,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <f>VLOOKUP(B25,competency_level!$A$2:$F$883,5,FALSE)</f>
         <v>等級2</v>
       </c>
       <c r="F25" t="str">
@@ -4135,15 +4945,15 @@
         <v>180</v>
       </c>
       <c r="C26" s="16">
-        <f>VLOOKUP(B26,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <f>VLOOKUP(B26,competency_level!$A$2:$F$883,2,FALSE)</f>
         <v>152</v>
       </c>
       <c r="D26" s="16">
-        <f>VLOOKUP(B26,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <f>VLOOKUP(B26,competency_level!$A$2:$F$883,4,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E26" s="16" t="str">
-        <f>VLOOKUP(B26,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <f>VLOOKUP(B26,competency_level!$A$2:$F$883,5,FALSE)</f>
         <v>等級3</v>
       </c>
       <c r="F26" t="str">
@@ -4163,15 +4973,15 @@
         <v>181</v>
       </c>
       <c r="C27" s="16">
-        <f>VLOOKUP(B27,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <f>VLOOKUP(B27,competency_level!$A$2:$F$883,2,FALSE)</f>
         <v>152</v>
       </c>
       <c r="D27" s="16">
-        <f>VLOOKUP(B27,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <f>VLOOKUP(B27,competency_level!$A$2:$F$883,4,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E27" s="16" t="str">
-        <f>VLOOKUP(B27,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <f>VLOOKUP(B27,competency_level!$A$2:$F$883,5,FALSE)</f>
         <v>等級4</v>
       </c>
       <c r="F27" t="str">
@@ -4191,15 +5001,15 @@
         <v>182</v>
       </c>
       <c r="C28" s="16">
-        <f>VLOOKUP(B28,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <f>VLOOKUP(B28,competency_level!$A$2:$F$883,2,FALSE)</f>
         <v>153</v>
       </c>
       <c r="D28" s="16">
-        <f>VLOOKUP(B28,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <f>VLOOKUP(B28,competency_level!$A$2:$F$883,4,FALSE)</f>
         <v>1</v>
       </c>
       <c r="E28" s="16" t="str">
-        <f>VLOOKUP(B28,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <f>VLOOKUP(B28,competency_level!$A$2:$F$883,5,FALSE)</f>
         <v>等級1</v>
       </c>
       <c r="F28" t="str">
@@ -4219,15 +5029,15 @@
         <v>183</v>
       </c>
       <c r="C29" s="16">
-        <f>VLOOKUP(B29,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <f>VLOOKUP(B29,competency_level!$A$2:$F$883,2,FALSE)</f>
         <v>153</v>
       </c>
       <c r="D29" s="16">
-        <f>VLOOKUP(B29,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <f>VLOOKUP(B29,competency_level!$A$2:$F$883,4,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E29" s="16" t="str">
-        <f>VLOOKUP(B29,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <f>VLOOKUP(B29,competency_level!$A$2:$F$883,5,FALSE)</f>
         <v>等級2</v>
       </c>
       <c r="F29" t="str">
@@ -4247,15 +5057,15 @@
         <v>184</v>
       </c>
       <c r="C30" s="16">
-        <f>VLOOKUP(B30,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <f>VLOOKUP(B30,competency_level!$A$2:$F$883,2,FALSE)</f>
         <v>153</v>
       </c>
       <c r="D30" s="16">
-        <f>VLOOKUP(B30,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <f>VLOOKUP(B30,competency_level!$A$2:$F$883,4,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E30" s="16" t="str">
-        <f>VLOOKUP(B30,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <f>VLOOKUP(B30,competency_level!$A$2:$F$883,5,FALSE)</f>
         <v>等級3</v>
       </c>
       <c r="F30" t="str">
@@ -4275,15 +5085,15 @@
         <v>185</v>
       </c>
       <c r="C31" s="16">
-        <f>VLOOKUP(B31,competency_level!$A$2:$F$884,2,FALSE)</f>
+        <f>VLOOKUP(B31,competency_level!$A$2:$F$883,2,FALSE)</f>
         <v>153</v>
       </c>
       <c r="D31" s="16">
-        <f>VLOOKUP(B31,competency_level!$A$2:$F$884,4,FALSE)</f>
+        <f>VLOOKUP(B31,competency_level!$A$2:$F$883,4,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E31" s="16" t="str">
-        <f>VLOOKUP(B31,competency_level!$A$2:$F$884,5,FALSE)</f>
+        <f>VLOOKUP(B31,competency_level!$A$2:$F$883,5,FALSE)</f>
         <v>等級4</v>
       </c>
       <c r="F31" t="str">
@@ -4293,6 +5103,351 @@
       <c r="I31" t="str">
         <f t="shared" si="1"/>
         <v>描述153等級4-119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>120</v>
+      </c>
+      <c r="B32">
+        <v>185</v>
+      </c>
+      <c r="F32" t="s">
+        <v>382</v>
+      </c>
+      <c r="I32" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>121</v>
+      </c>
+      <c r="B33">
+        <v>186</v>
+      </c>
+      <c r="F33" t="s">
+        <v>383</v>
+      </c>
+      <c r="I33" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>122</v>
+      </c>
+      <c r="B34">
+        <v>187</v>
+      </c>
+      <c r="F34" t="s">
+        <v>377</v>
+      </c>
+      <c r="I34" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>123</v>
+      </c>
+      <c r="B35">
+        <v>188</v>
+      </c>
+      <c r="F35" t="s">
+        <v>382</v>
+      </c>
+      <c r="I35" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>124</v>
+      </c>
+      <c r="B36">
+        <v>189</v>
+      </c>
+      <c r="F36" t="s">
+        <v>383</v>
+      </c>
+      <c r="I36" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>125</v>
+      </c>
+      <c r="B37">
+        <v>190</v>
+      </c>
+      <c r="F37" t="s">
+        <v>377</v>
+      </c>
+      <c r="I37" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>126</v>
+      </c>
+      <c r="B38">
+        <v>191</v>
+      </c>
+      <c r="F38" t="s">
+        <v>382</v>
+      </c>
+      <c r="I38" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>127</v>
+      </c>
+      <c r="B39">
+        <v>192</v>
+      </c>
+      <c r="F39" t="s">
+        <v>383</v>
+      </c>
+      <c r="I39" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>128</v>
+      </c>
+      <c r="B40">
+        <v>193</v>
+      </c>
+      <c r="F40" t="s">
+        <v>377</v>
+      </c>
+      <c r="I40" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>129</v>
+      </c>
+      <c r="B41">
+        <v>194</v>
+      </c>
+      <c r="F41" t="s">
+        <v>382</v>
+      </c>
+      <c r="I41" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>130</v>
+      </c>
+      <c r="B42">
+        <v>195</v>
+      </c>
+      <c r="F42" t="s">
+        <v>383</v>
+      </c>
+      <c r="I42" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>131</v>
+      </c>
+      <c r="B43">
+        <v>196</v>
+      </c>
+      <c r="F43" t="s">
+        <v>377</v>
+      </c>
+      <c r="I43" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>132</v>
+      </c>
+      <c r="B44">
+        <v>197</v>
+      </c>
+      <c r="F44" t="s">
+        <v>399</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>133</v>
+      </c>
+      <c r="B45">
+        <v>198</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>134</v>
+      </c>
+      <c r="B46">
+        <v>199</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="I46" s="22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>135</v>
+      </c>
+      <c r="B47">
+        <v>200</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="I47" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>136</v>
+      </c>
+      <c r="B48">
+        <v>201</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="I48" s="22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>137</v>
+      </c>
+      <c r="B49">
+        <v>202</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="I49" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>138</v>
+      </c>
+      <c r="B50">
+        <v>203</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="I50" s="22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>139</v>
+      </c>
+      <c r="B51">
+        <v>204</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="I51" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>140</v>
+      </c>
+      <c r="B52">
+        <v>205</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="I52" s="22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>141</v>
+      </c>
+      <c r="B53">
+        <v>206</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="I53" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>142</v>
+      </c>
+      <c r="B54">
+        <v>207</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="I54" s="22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>143</v>
+      </c>
+      <c r="B55">
+        <v>208</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="I55" s="22" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4349,7 +5504,7 @@
         <v>95</v>
       </c>
       <c r="C2" t="str">
-        <f>VLOOKUP(B2,competency!$A$6:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B2,competency!$A$6:$F$995,6,FALSE)</f>
         <v>溝通協調能力</v>
       </c>
       <c r="D2">
@@ -4367,7 +5522,7 @@
         <v>95</v>
       </c>
       <c r="C3" t="str">
-        <f>VLOOKUP(B3,competency!$A$6:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B3,competency!$A$6:$F$995,6,FALSE)</f>
         <v>溝通協調能力</v>
       </c>
       <c r="D3">
@@ -4385,7 +5540,7 @@
         <v>95</v>
       </c>
       <c r="C4" t="str">
-        <f>VLOOKUP(B4,competency!$A$6:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B4,competency!$A$6:$F$995,6,FALSE)</f>
         <v>溝通協調能力</v>
       </c>
       <c r="D4">
@@ -4403,7 +5558,7 @@
         <v>95</v>
       </c>
       <c r="C5" t="str">
-        <f>VLOOKUP(B5,competency!$A$6:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B5,competency!$A$6:$F$995,6,FALSE)</f>
         <v>溝通協調能力</v>
       </c>
       <c r="D5">
@@ -4421,7 +5576,7 @@
         <v>95</v>
       </c>
       <c r="C6" t="str">
-        <f>VLOOKUP(B6,competency!$A$6:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B6,competency!$A$6:$F$995,6,FALSE)</f>
         <v>溝通協調能力</v>
       </c>
       <c r="D6">
@@ -4439,7 +5594,7 @@
         <v>96</v>
       </c>
       <c r="C7" t="str">
-        <f>VLOOKUP(B7,competency!$A$6:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B7,competency!$A$6:$F$995,6,FALSE)</f>
         <v>執行能力</v>
       </c>
       <c r="D7">
@@ -4457,7 +5612,7 @@
         <v>96</v>
       </c>
       <c r="C8" t="str">
-        <f>VLOOKUP(B8,competency!$A$6:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B8,competency!$A$6:$F$995,6,FALSE)</f>
         <v>執行能力</v>
       </c>
       <c r="D8">
@@ -4475,7 +5630,7 @@
         <v>96</v>
       </c>
       <c r="C9" t="str">
-        <f>VLOOKUP(B9,competency!$A$6:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B9,competency!$A$6:$F$995,6,FALSE)</f>
         <v>執行能力</v>
       </c>
       <c r="D9">
@@ -4493,7 +5648,7 @@
         <v>96</v>
       </c>
       <c r="C10" t="str">
-        <f>VLOOKUP(B10,competency!$A$6:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B10,competency!$A$6:$F$995,6,FALSE)</f>
         <v>執行能力</v>
       </c>
       <c r="D10">
@@ -4511,7 +5666,7 @@
         <v>96</v>
       </c>
       <c r="C11" t="str">
-        <f>VLOOKUP(B11,competency!$A$6:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B11,competency!$A$6:$F$995,6,FALSE)</f>
         <v>執行能力</v>
       </c>
       <c r="D11">
@@ -4529,7 +5684,7 @@
         <v>97</v>
       </c>
       <c r="C12" t="str">
-        <f>VLOOKUP(B12,competency!$A$6:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B12,competency!$A$6:$F$995,6,FALSE)</f>
         <v>客戶導向</v>
       </c>
       <c r="D12">
@@ -4547,7 +5702,7 @@
         <v>97</v>
       </c>
       <c r="C13" t="str">
-        <f>VLOOKUP(B13,competency!$A$6:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B13,competency!$A$6:$F$995,6,FALSE)</f>
         <v>客戶導向</v>
       </c>
       <c r="D13">
@@ -4565,7 +5720,7 @@
         <v>97</v>
       </c>
       <c r="C14" t="str">
-        <f>VLOOKUP(B14,competency!$A$6:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B14,competency!$A$6:$F$995,6,FALSE)</f>
         <v>客戶導向</v>
       </c>
       <c r="D14">
@@ -4583,7 +5738,7 @@
         <v>97</v>
       </c>
       <c r="C15" t="str">
-        <f>VLOOKUP(B15,competency!$A$6:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B15,competency!$A$6:$F$995,6,FALSE)</f>
         <v>客戶導向</v>
       </c>
       <c r="D15">
@@ -4601,7 +5756,7 @@
         <v>97</v>
       </c>
       <c r="C16" t="str">
-        <f>VLOOKUP(B16,competency!$A$6:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B16,competency!$A$6:$F$995,6,FALSE)</f>
         <v>客戶導向</v>
       </c>
       <c r="D16">
@@ -4619,7 +5774,7 @@
         <v>98</v>
       </c>
       <c r="C17" t="str">
-        <f>VLOOKUP(B17,competency!$A$6:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B17,competency!$A$6:$F$995,6,FALSE)</f>
         <v>人際關係建立</v>
       </c>
       <c r="D17">
@@ -4637,7 +5792,7 @@
         <v>98</v>
       </c>
       <c r="C18" t="str">
-        <f>VLOOKUP(B18,competency!$A$6:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B18,competency!$A$6:$F$995,6,FALSE)</f>
         <v>人際關係建立</v>
       </c>
       <c r="D18">
@@ -4655,7 +5810,7 @@
         <v>98</v>
       </c>
       <c r="C19" t="str">
-        <f>VLOOKUP(B19,competency!$A$6:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B19,competency!$A$6:$F$995,6,FALSE)</f>
         <v>人際關係建立</v>
       </c>
       <c r="D19">
@@ -4673,7 +5828,7 @@
         <v>98</v>
       </c>
       <c r="C20" t="str">
-        <f>VLOOKUP(B20,competency!$A$6:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B20,competency!$A$6:$F$995,6,FALSE)</f>
         <v>人際關係建立</v>
       </c>
       <c r="D20">
@@ -4691,7 +5846,7 @@
         <v>98</v>
       </c>
       <c r="C21" t="str">
-        <f>VLOOKUP(B21,competency!$A$6:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B21,competency!$A$6:$F$995,6,FALSE)</f>
         <v>人際關係建立</v>
       </c>
       <c r="D21">
@@ -4709,7 +5864,7 @@
         <v>99</v>
       </c>
       <c r="C22" t="str">
-        <f>VLOOKUP(B22,competency!$A$6:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B22,competency!$A$6:$F$995,6,FALSE)</f>
         <v>培育/指導部屬</v>
       </c>
       <c r="D22">
@@ -4727,7 +5882,7 @@
         <v>99</v>
       </c>
       <c r="C23" t="str">
-        <f>VLOOKUP(B23,competency!$A$6:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B23,competency!$A$6:$F$995,6,FALSE)</f>
         <v>培育/指導部屬</v>
       </c>
       <c r="D23">
@@ -4745,7 +5900,7 @@
         <v>99</v>
       </c>
       <c r="C24" t="str">
-        <f>VLOOKUP(B24,competency!$A$6:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B24,competency!$A$6:$F$995,6,FALSE)</f>
         <v>培育/指導部屬</v>
       </c>
       <c r="D24">
@@ -4763,7 +5918,7 @@
         <v>99</v>
       </c>
       <c r="C25" t="str">
-        <f>VLOOKUP(B25,competency!$A$6:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B25,competency!$A$6:$F$995,6,FALSE)</f>
         <v>培育/指導部屬</v>
       </c>
       <c r="D25">
@@ -4781,7 +5936,7 @@
         <v>99</v>
       </c>
       <c r="C26" t="str">
-        <f>VLOOKUP(B26,competency!$A$6:$F$1004,6,FALSE)</f>
+        <f>VLOOKUP(B26,competency!$A$6:$F$995,6,FALSE)</f>
         <v>培育/指導部屬</v>
       </c>
       <c r="D26">
@@ -5394,7 +6549,7 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -6770,7 +7925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C270"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -9764,25 +10919,24 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32.25" style="11" customWidth="1"/>
-    <col min="3" max="3" width="28.25" customWidth="1"/>
-    <col min="4" max="4" width="27.25" customWidth="1"/>
+    <col min="3" max="3" width="28.25" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="33.375" customWidth="1"/>
-    <col min="6" max="6" width="31.5" customWidth="1"/>
-    <col min="7" max="7" width="16.75" customWidth="1"/>
-    <col min="8" max="8" width="21.375" customWidth="1"/>
-    <col min="9" max="9" width="24.25" customWidth="1"/>
-    <col min="10" max="10" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="31.5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="7.875" customWidth="1"/>
+    <col min="10" max="10" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9885,6 +11039,46 @@
         <v>330</v>
       </c>
       <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>104</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="H6" t="s">
+        <v>357</v>
+      </c>
+      <c r="I6" t="s">
+        <v>359</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>55</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="H7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I7" t="s">
+        <v>359</v>
+      </c>
+      <c r="J7">
         <v>1</v>
       </c>
     </row>
@@ -9897,22 +11091,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="6.875" customWidth="1"/>
+    <col min="4" max="4" width="8.375" customWidth="1"/>
+    <col min="5" max="5" width="5.5" customWidth="1"/>
     <col min="6" max="6" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
     <col min="9" max="11" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10262,6 +11456,214 @@
         <v>135</v>
       </c>
     </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>154</v>
+      </c>
+      <c r="B14">
+        <v>104</v>
+      </c>
+      <c r="C14" t="s">
+        <v>356</v>
+      </c>
+      <c r="D14" t="s">
+        <v>358</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G14" t="s">
+        <v>361</v>
+      </c>
+      <c r="I14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>155</v>
+      </c>
+      <c r="B15">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
+        <v>356</v>
+      </c>
+      <c r="D15" t="s">
+        <v>358</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>364</v>
+      </c>
+      <c r="G15" t="s">
+        <v>365</v>
+      </c>
+      <c r="I15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>156</v>
+      </c>
+      <c r="B16">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>356</v>
+      </c>
+      <c r="D16" t="s">
+        <v>358</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>366</v>
+      </c>
+      <c r="G16" t="s">
+        <v>367</v>
+      </c>
+      <c r="I16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>157</v>
+      </c>
+      <c r="B17">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>356</v>
+      </c>
+      <c r="D17" t="s">
+        <v>358</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>368</v>
+      </c>
+      <c r="G17" t="s">
+        <v>369</v>
+      </c>
+      <c r="I17" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>158</v>
+      </c>
+      <c r="B18">
+        <v>104</v>
+      </c>
+      <c r="C18" t="s">
+        <v>356</v>
+      </c>
+      <c r="D18" t="s">
+        <v>358</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>370</v>
+      </c>
+      <c r="G18" t="s">
+        <v>371</v>
+      </c>
+      <c r="I18" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>159</v>
+      </c>
+      <c r="B19">
+        <v>104</v>
+      </c>
+      <c r="C19" t="s">
+        <v>356</v>
+      </c>
+      <c r="D19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>372</v>
+      </c>
+      <c r="G19" t="s">
+        <v>362</v>
+      </c>
+      <c r="I19" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>160</v>
+      </c>
+      <c r="B20">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>356</v>
+      </c>
+      <c r="D20" t="s">
+        <v>358</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>373</v>
+      </c>
+      <c r="G20" t="s">
+        <v>374</v>
+      </c>
+      <c r="I20" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>161</v>
+      </c>
+      <c r="B21">
+        <v>104</v>
+      </c>
+      <c r="C21" t="s">
+        <v>356</v>
+      </c>
+      <c r="D21" t="s">
+        <v>358</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>375</v>
+      </c>
+      <c r="G21" t="s">
+        <v>363</v>
+      </c>
+      <c r="I21" t="s">
+        <v>363</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/import.xlsx
+++ b/import.xlsx
@@ -1,40 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\hrd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\hrd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" tabRatio="942" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" tabRatio="942" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="competency_dic" sheetId="1" r:id="rId1"/>
     <sheet name="group_property" sheetId="16" r:id="rId2"/>
     <sheet name="job_family" sheetId="17" r:id="rId3"/>
-    <sheet name="job" sheetId="11" r:id="rId4"/>
-    <sheet name="account" sheetId="6" r:id="rId5"/>
-    <sheet name="user_sso" sheetId="9" state="hidden" r:id="rId6"/>
-    <sheet name="basis_evaluation_appraisee" sheetId="12" r:id="rId7"/>
-    <sheet name="competency_model" sheetId="3" r:id="rId8"/>
-    <sheet name="competency" sheetId="4" r:id="rId9"/>
-    <sheet name="competency_level" sheetId="24" r:id="rId10"/>
-    <sheet name="training_method" sheetId="19" r:id="rId11"/>
-    <sheet name="training_teacher" sheetId="20" r:id="rId12"/>
-    <sheet name="course_property" sheetId="21" r:id="rId13"/>
-    <sheet name="ability" sheetId="15" r:id="rId14"/>
-    <sheet name="behavior" sheetId="5" r:id="rId15"/>
-    <sheet name="test" sheetId="2" r:id="rId16"/>
+    <sheet name="job_type" sheetId="25" r:id="rId4"/>
+    <sheet name="job" sheetId="11" r:id="rId5"/>
+    <sheet name="account" sheetId="6" r:id="rId6"/>
+    <sheet name="user_sso" sheetId="9" state="hidden" r:id="rId7"/>
+    <sheet name="basis_evaluation_appraisee" sheetId="12" r:id="rId8"/>
+    <sheet name="competency_model" sheetId="3" r:id="rId9"/>
+    <sheet name="competency" sheetId="4" r:id="rId10"/>
+    <sheet name="competency_level" sheetId="24" r:id="rId11"/>
+    <sheet name="training_method" sheetId="19" r:id="rId12"/>
+    <sheet name="training_teacher" sheetId="20" r:id="rId13"/>
+    <sheet name="course_property" sheetId="21" r:id="rId14"/>
+    <sheet name="ability" sheetId="15" r:id="rId15"/>
+    <sheet name="behavior" sheetId="5" r:id="rId16"/>
+    <sheet name="test" sheetId="2" r:id="rId17"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">account!$A$1:$I$20</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">basis_evaluation_appraisee!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">job!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">account!$A$1:$I$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">basis_evaluation_appraisee!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">job!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="411">
   <si>
     <t>competency_type</t>
   </si>
@@ -1613,23 +1614,67 @@
     <t>按計劃制定任務、執行任務</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>job_type_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>job_type_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>term-tw-job_type_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>term-cn-job_type_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>term-en-job_type_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>AL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不區分職系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不区分职系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>job_type_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1662,7 +1707,7 @@
     <font>
       <sz val="12"/>
       <color theme="0" tint="-0.34998626667073579"/>
-      <name val="新細明體"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1677,9 +1722,16 @@
     <font>
       <sz val="12"/>
       <color theme="2" tint="-0.249977111117893"/>
-      <name val="新細明體"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1835,7 +1887,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2140,7 +2192,7 @@
       <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
@@ -2151,7 +2203,7 @@
     <col min="7" max="8" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2177,7 +2229,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2203,7 +2255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2229,7 +2281,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2255,7 +2307,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -2289,13 +2341,594 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="6.875" customWidth="1"/>
+    <col min="4" max="4" width="8.375" customWidth="1"/>
+    <col min="5" max="5" width="5.5" customWidth="1"/>
+    <col min="6" max="6" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="9" max="11" width="31.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="71.25">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1">
+      <c r="A2" s="1">
+        <v>150</v>
+      </c>
+      <c r="B2" s="1">
+        <v>103</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1">
+      <c r="A3" s="1">
+        <v>151</v>
+      </c>
+      <c r="B3" s="1">
+        <v>103</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1">
+      <c r="A4" s="1">
+        <v>152</v>
+      </c>
+      <c r="B4" s="1">
+        <v>103</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1">
+      <c r="A5" s="1">
+        <v>153</v>
+      </c>
+      <c r="B5" s="1">
+        <v>103</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="85.5">
+      <c r="A6" s="1">
+        <v>95</v>
+      </c>
+      <c r="B6" s="1">
+        <f>competency_model!A2</f>
+        <v>100</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="71.25">
+      <c r="A7">
+        <v>96</v>
+      </c>
+      <c r="B7" s="1">
+        <f>competency_model!A2</f>
+        <v>100</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="42.75">
+      <c r="A8">
+        <v>97</v>
+      </c>
+      <c r="B8" s="1">
+        <f>competency_model!A2</f>
+        <v>100</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="28.5">
+      <c r="A9">
+        <v>98</v>
+      </c>
+      <c r="B9" s="1">
+        <f>competency_model!A2</f>
+        <v>100</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="57">
+      <c r="A10">
+        <v>99</v>
+      </c>
+      <c r="B10" s="1">
+        <f>competency_model!A2</f>
+        <v>100</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="42.75">
+      <c r="A11">
+        <v>147</v>
+      </c>
+      <c r="B11">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="42.75">
+      <c r="A12">
+        <v>148</v>
+      </c>
+      <c r="B12">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28.5">
+      <c r="A13">
+        <v>149</v>
+      </c>
+      <c r="B13">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>154</v>
+      </c>
+      <c r="B14">
+        <v>104</v>
+      </c>
+      <c r="C14" t="s">
+        <v>356</v>
+      </c>
+      <c r="D14" t="s">
+        <v>358</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G14" t="s">
+        <v>361</v>
+      </c>
+      <c r="I14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>155</v>
+      </c>
+      <c r="B15">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
+        <v>356</v>
+      </c>
+      <c r="D15" t="s">
+        <v>358</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>364</v>
+      </c>
+      <c r="G15" t="s">
+        <v>365</v>
+      </c>
+      <c r="I15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>156</v>
+      </c>
+      <c r="B16">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>356</v>
+      </c>
+      <c r="D16" t="s">
+        <v>358</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>366</v>
+      </c>
+      <c r="G16" t="s">
+        <v>367</v>
+      </c>
+      <c r="I16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>157</v>
+      </c>
+      <c r="B17">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>356</v>
+      </c>
+      <c r="D17" t="s">
+        <v>358</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>368</v>
+      </c>
+      <c r="G17" t="s">
+        <v>369</v>
+      </c>
+      <c r="I17" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>158</v>
+      </c>
+      <c r="B18">
+        <v>104</v>
+      </c>
+      <c r="C18" t="s">
+        <v>356</v>
+      </c>
+      <c r="D18" t="s">
+        <v>358</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>370</v>
+      </c>
+      <c r="G18" t="s">
+        <v>371</v>
+      </c>
+      <c r="I18" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>159</v>
+      </c>
+      <c r="B19">
+        <v>104</v>
+      </c>
+      <c r="C19" t="s">
+        <v>356</v>
+      </c>
+      <c r="D19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>372</v>
+      </c>
+      <c r="G19" t="s">
+        <v>362</v>
+      </c>
+      <c r="I19" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>160</v>
+      </c>
+      <c r="B20">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>356</v>
+      </c>
+      <c r="D20" t="s">
+        <v>358</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>373</v>
+      </c>
+      <c r="G20" t="s">
+        <v>374</v>
+      </c>
+      <c r="I20" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>161</v>
+      </c>
+      <c r="B21">
+        <v>104</v>
+      </c>
+      <c r="C21" t="s">
+        <v>356</v>
+      </c>
+      <c r="D21" t="s">
+        <v>358</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>375</v>
+      </c>
+      <c r="G21" t="s">
+        <v>363</v>
+      </c>
+      <c r="I21" t="s">
+        <v>363</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -2307,7 +2940,7 @@
     <col min="14" max="14" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -2348,7 +2981,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>170</v>
       </c>
@@ -2372,7 +3005,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>171</v>
       </c>
@@ -2396,7 +3029,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>172</v>
       </c>
@@ -2420,7 +3053,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>173</v>
       </c>
@@ -2444,7 +3077,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>174</v>
       </c>
@@ -2468,7 +3101,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>175</v>
       </c>
@@ -2492,7 +3125,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>176</v>
       </c>
@@ -2516,7 +3149,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>177</v>
       </c>
@@ -2540,7 +3173,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>178</v>
       </c>
@@ -2564,7 +3197,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>179</v>
       </c>
@@ -2588,7 +3221,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>180</v>
       </c>
@@ -2612,7 +3245,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>181</v>
       </c>
@@ -2636,7 +3269,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>182</v>
       </c>
@@ -2660,7 +3293,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>183</v>
       </c>
@@ -2684,7 +3317,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>184</v>
       </c>
@@ -2708,7 +3341,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>185</v>
       </c>
@@ -2732,7 +3365,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>185</v>
       </c>
@@ -2756,7 +3389,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>186</v>
       </c>
@@ -2780,7 +3413,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>187</v>
       </c>
@@ -2804,7 +3437,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>188</v>
       </c>
@@ -2828,7 +3461,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>189</v>
       </c>
@@ -2852,7 +3485,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>190</v>
       </c>
@@ -2876,7 +3509,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>191</v>
       </c>
@@ -2900,7 +3533,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>192</v>
       </c>
@@ -2924,7 +3557,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>193</v>
       </c>
@@ -2948,7 +3581,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>194</v>
       </c>
@@ -2972,7 +3605,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>195</v>
       </c>
@@ -2996,7 +3629,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>196</v>
       </c>
@@ -3020,7 +3653,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>197</v>
       </c>
@@ -3044,7 +3677,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>198</v>
       </c>
@@ -3068,7 +3701,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>199</v>
       </c>
@@ -3092,7 +3725,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>200</v>
       </c>
@@ -3116,7 +3749,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>201</v>
       </c>
@@ -3140,7 +3773,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>202</v>
       </c>
@@ -3164,7 +3797,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>203</v>
       </c>
@@ -3188,7 +3821,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>204</v>
       </c>
@@ -3212,7 +3845,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>205</v>
       </c>
@@ -3236,7 +3869,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>206</v>
       </c>
@@ -3260,7 +3893,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>207</v>
       </c>
@@ -3284,7 +3917,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>208</v>
       </c>
@@ -3314,7 +3947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
@@ -3322,7 +3955,7 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="20.875" customWidth="1"/>
     <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
@@ -3331,7 +3964,7 @@
     <col min="12" max="14" width="36.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>306</v>
       </c>
@@ -3357,7 +3990,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>24</v>
       </c>
@@ -3372,7 +4005,7 @@
         <v>課程類型24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>25</v>
       </c>
@@ -3387,7 +4020,7 @@
         <v>課程類型25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>26</v>
       </c>
@@ -3402,7 +4035,7 @@
         <v>課程類型26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>27</v>
       </c>
@@ -3417,7 +4050,7 @@
         <v>課程類型27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>28</v>
       </c>
@@ -3432,7 +4065,7 @@
         <v>課程類型28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>29</v>
       </c>
@@ -3447,7 +4080,7 @@
         <v>課程類型29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>30</v>
       </c>
@@ -3462,7 +4095,7 @@
         <v>課程類型30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>31</v>
       </c>
@@ -3477,7 +4110,7 @@
         <v>課程類型31</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>32</v>
       </c>
@@ -3492,7 +4125,7 @@
         <v>課程類型32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>33</v>
       </c>
@@ -3507,7 +4140,7 @@
         <v>課程類型33</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>34</v>
       </c>
@@ -3522,7 +4155,7 @@
         <v>課程類型34</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>35</v>
       </c>
@@ -3537,7 +4170,7 @@
         <v>課程類型35</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>36</v>
       </c>
@@ -3552,7 +4185,7 @@
         <v>課程類型36</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>37</v>
       </c>
@@ -3567,7 +4200,7 @@
         <v>課程類型37</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>38</v>
       </c>
@@ -3582,7 +4215,7 @@
         <v>課程類型38</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>39</v>
       </c>
@@ -3595,234 +4228,6 @@
       <c r="F17" t="str">
         <f t="shared" si="1"/>
         <v>課程類型39</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>24</v>
-      </c>
-      <c r="B2">
-        <v>170</v>
-      </c>
-      <c r="C2" t="str">
-        <f>"訓練講師"&amp;A2</f>
-        <v>訓練講師24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>171</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C4" si="0">"訓練講師"&amp;A3</f>
-        <v>訓練講師25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>26</v>
-      </c>
-      <c r="B4">
-        <v>172</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>訓練講師26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>173</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" ref="C5:C17" si="1">"訓練講師"&amp;A5</f>
-        <v>訓練講師27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>28</v>
-      </c>
-      <c r="B6">
-        <v>174</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="1"/>
-        <v>訓練講師28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>29</v>
-      </c>
-      <c r="B7">
-        <v>175</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="1"/>
-        <v>訓練講師29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>30</v>
-      </c>
-      <c r="B8">
-        <v>176</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="1"/>
-        <v>訓練講師30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>31</v>
-      </c>
-      <c r="B9">
-        <v>177</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="1"/>
-        <v>訓練講師31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>32</v>
-      </c>
-      <c r="B10">
-        <v>178</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="1"/>
-        <v>訓練講師32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>33</v>
-      </c>
-      <c r="B11">
-        <v>179</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="1"/>
-        <v>訓練講師33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>34</v>
-      </c>
-      <c r="B12">
-        <v>180</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="1"/>
-        <v>訓練講師34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>35</v>
-      </c>
-      <c r="B13">
-        <v>181</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="1"/>
-        <v>訓練講師35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>36</v>
-      </c>
-      <c r="B14">
-        <v>182</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="1"/>
-        <v>訓練講師36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>37</v>
-      </c>
-      <c r="B15">
-        <v>183</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="1"/>
-        <v>訓練講師37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>38</v>
-      </c>
-      <c r="B16">
-        <v>184</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="1"/>
-        <v>訓練講師38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>39</v>
-      </c>
-      <c r="B17">
-        <v>185</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="1"/>
-        <v>訓練講師39</v>
       </c>
     </row>
   </sheetData>
@@ -3833,398 +4238,224 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B17"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B1" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>314</v>
+      <c r="C1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1" t="s">
+        <v>310</v>
       </c>
       <c r="E1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G1" t="s">
-        <v>317</v>
-      </c>
-      <c r="H1" t="s">
-        <v>318</v>
-      </c>
-      <c r="I1" t="s">
-        <v>319</v>
-      </c>
-      <c r="J1" t="s">
-        <v>320</v>
-      </c>
-      <c r="K1" t="s">
-        <v>321</v>
-      </c>
-      <c r="L1" t="s">
-        <v>322</v>
-      </c>
-      <c r="M1" t="s">
-        <v>323</v>
-      </c>
-      <c r="N1" t="s">
-        <v>324</v>
-      </c>
-      <c r="O1" t="s">
-        <v>325</v>
-      </c>
-      <c r="P1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>170</v>
       </c>
-      <c r="E2" t="str">
-        <f>"課程名稱"&amp;A2</f>
-        <v>課程名稱97</v>
-      </c>
-      <c r="H2" t="s">
-        <v>307</v>
-      </c>
-      <c r="K2" t="s">
-        <v>326</v>
-      </c>
-      <c r="N2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C2" t="str">
+        <f>"訓練講師"&amp;A2</f>
+        <v>訓練講師24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>171</v>
       </c>
-      <c r="E3" t="str">
-        <f>"課程名稱"&amp;A3</f>
-        <v>課程名稱98</v>
-      </c>
-      <c r="H3" t="s">
-        <v>307</v>
-      </c>
-      <c r="K3" t="s">
-        <v>326</v>
-      </c>
-      <c r="N3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C4" si="0">"訓練講師"&amp;A3</f>
+        <v>訓練講師25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>172</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" ref="E4:E17" si="0">"課程名稱"&amp;A4</f>
-        <v>課程名稱99</v>
-      </c>
-      <c r="H4" t="s">
-        <v>307</v>
-      </c>
-      <c r="K4" t="s">
-        <v>326</v>
-      </c>
-      <c r="N4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>訓練講師26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>173</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>課程名稱100</v>
-      </c>
-      <c r="H5" t="s">
-        <v>307</v>
-      </c>
-      <c r="K5" t="s">
-        <v>326</v>
-      </c>
-      <c r="N5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C5" t="str">
+        <f t="shared" ref="C5:C17" si="1">"訓練講師"&amp;A5</f>
+        <v>訓練講師27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>174</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>課程名稱101</v>
-      </c>
-      <c r="H6" t="s">
-        <v>307</v>
-      </c>
-      <c r="K6" t="s">
-        <v>326</v>
-      </c>
-      <c r="N6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>訓練講師28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>175</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>課程名稱102</v>
-      </c>
-      <c r="H7" t="s">
-        <v>307</v>
-      </c>
-      <c r="K7" t="s">
-        <v>326</v>
-      </c>
-      <c r="N7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>訓練講師29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>176</v>
       </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>課程名稱103</v>
-      </c>
-      <c r="H8" t="s">
-        <v>307</v>
-      </c>
-      <c r="K8" t="s">
-        <v>326</v>
-      </c>
-      <c r="N8" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>訓練講師30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>177</v>
       </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>課程名稱104</v>
-      </c>
-      <c r="H9" t="s">
-        <v>307</v>
-      </c>
-      <c r="K9" t="s">
-        <v>326</v>
-      </c>
-      <c r="N9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>訓練講師31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>178</v>
       </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>課程名稱105</v>
-      </c>
-      <c r="H10" t="s">
-        <v>307</v>
-      </c>
-      <c r="K10" t="s">
-        <v>326</v>
-      </c>
-      <c r="N10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>訓練講師32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>179</v>
       </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>課程名稱106</v>
-      </c>
-      <c r="H11" t="s">
-        <v>307</v>
-      </c>
-      <c r="K11" t="s">
-        <v>326</v>
-      </c>
-      <c r="N11" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>訓練講師33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>180</v>
       </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>課程名稱107</v>
-      </c>
-      <c r="H12" t="s">
-        <v>307</v>
-      </c>
-      <c r="K12" t="s">
-        <v>326</v>
-      </c>
-      <c r="N12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>訓練講師34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>181</v>
       </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>課程名稱108</v>
-      </c>
-      <c r="H13" t="s">
-        <v>307</v>
-      </c>
-      <c r="K13" t="s">
-        <v>326</v>
-      </c>
-      <c r="N13" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>訓練講師35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>182</v>
       </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>課程名稱109</v>
-      </c>
-      <c r="H14" t="s">
-        <v>307</v>
-      </c>
-      <c r="K14" t="s">
-        <v>326</v>
-      </c>
-      <c r="N14" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>訓練講師36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>183</v>
       </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>課程名稱110</v>
-      </c>
-      <c r="H15" t="s">
-        <v>307</v>
-      </c>
-      <c r="K15" t="s">
-        <v>326</v>
-      </c>
-      <c r="N15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>訓練講師37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>184</v>
       </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>課程名稱111</v>
-      </c>
-      <c r="H16" t="s">
-        <v>307</v>
-      </c>
-      <c r="K16" t="s">
-        <v>326</v>
-      </c>
-      <c r="N16" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>訓練講師38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>185</v>
       </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>課程名稱112</v>
-      </c>
-      <c r="H17" t="s">
-        <v>307</v>
-      </c>
-      <c r="K17" t="s">
-        <v>326</v>
-      </c>
-      <c r="N17" t="s">
-        <v>327</v>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>訓練講師39</v>
       </c>
     </row>
   </sheetData>
@@ -4235,13 +4466,418 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="E1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J1" t="s">
+        <v>320</v>
+      </c>
+      <c r="K1" t="s">
+        <v>321</v>
+      </c>
+      <c r="L1" t="s">
+        <v>322</v>
+      </c>
+      <c r="M1" t="s">
+        <v>323</v>
+      </c>
+      <c r="N1" t="s">
+        <v>324</v>
+      </c>
+      <c r="O1" t="s">
+        <v>325</v>
+      </c>
+      <c r="P1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>97</v>
+      </c>
+      <c r="B2">
+        <v>170</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"課程名稱"&amp;A2</f>
+        <v>課程名稱97</v>
+      </c>
+      <c r="H2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>98</v>
+      </c>
+      <c r="B3">
+        <v>171</v>
+      </c>
+      <c r="E3" t="str">
+        <f>"課程名稱"&amp;A3</f>
+        <v>課程名稱98</v>
+      </c>
+      <c r="H3" t="s">
+        <v>307</v>
+      </c>
+      <c r="K3" t="s">
+        <v>326</v>
+      </c>
+      <c r="N3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>99</v>
+      </c>
+      <c r="B4">
+        <v>172</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E17" si="0">"課程名稱"&amp;A4</f>
+        <v>課程名稱99</v>
+      </c>
+      <c r="H4" t="s">
+        <v>307</v>
+      </c>
+      <c r="K4" t="s">
+        <v>326</v>
+      </c>
+      <c r="N4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>173</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>課程名稱100</v>
+      </c>
+      <c r="H5" t="s">
+        <v>307</v>
+      </c>
+      <c r="K5" t="s">
+        <v>326</v>
+      </c>
+      <c r="N5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>101</v>
+      </c>
+      <c r="B6">
+        <v>174</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>課程名稱101</v>
+      </c>
+      <c r="H6" t="s">
+        <v>307</v>
+      </c>
+      <c r="K6" t="s">
+        <v>326</v>
+      </c>
+      <c r="N6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>102</v>
+      </c>
+      <c r="B7">
+        <v>175</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>課程名稱102</v>
+      </c>
+      <c r="H7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K7" t="s">
+        <v>326</v>
+      </c>
+      <c r="N7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>103</v>
+      </c>
+      <c r="B8">
+        <v>176</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>課程名稱103</v>
+      </c>
+      <c r="H8" t="s">
+        <v>307</v>
+      </c>
+      <c r="K8" t="s">
+        <v>326</v>
+      </c>
+      <c r="N8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>104</v>
+      </c>
+      <c r="B9">
+        <v>177</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>課程名稱104</v>
+      </c>
+      <c r="H9" t="s">
+        <v>307</v>
+      </c>
+      <c r="K9" t="s">
+        <v>326</v>
+      </c>
+      <c r="N9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>105</v>
+      </c>
+      <c r="B10">
+        <v>178</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>課程名稱105</v>
+      </c>
+      <c r="H10" t="s">
+        <v>307</v>
+      </c>
+      <c r="K10" t="s">
+        <v>326</v>
+      </c>
+      <c r="N10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>106</v>
+      </c>
+      <c r="B11">
+        <v>179</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>課程名稱106</v>
+      </c>
+      <c r="H11" t="s">
+        <v>307</v>
+      </c>
+      <c r="K11" t="s">
+        <v>326</v>
+      </c>
+      <c r="N11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>107</v>
+      </c>
+      <c r="B12">
+        <v>180</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>課程名稱107</v>
+      </c>
+      <c r="H12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K12" t="s">
+        <v>326</v>
+      </c>
+      <c r="N12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>108</v>
+      </c>
+      <c r="B13">
+        <v>181</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>課程名稱108</v>
+      </c>
+      <c r="H13" t="s">
+        <v>307</v>
+      </c>
+      <c r="K13" t="s">
+        <v>326</v>
+      </c>
+      <c r="N13" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>109</v>
+      </c>
+      <c r="B14">
+        <v>182</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>課程名稱109</v>
+      </c>
+      <c r="H14" t="s">
+        <v>307</v>
+      </c>
+      <c r="K14" t="s">
+        <v>326</v>
+      </c>
+      <c r="N14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>110</v>
+      </c>
+      <c r="B15">
+        <v>183</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>課程名稱110</v>
+      </c>
+      <c r="H15" t="s">
+        <v>307</v>
+      </c>
+      <c r="K15" t="s">
+        <v>326</v>
+      </c>
+      <c r="N15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>111</v>
+      </c>
+      <c r="B16">
+        <v>184</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>課程名稱111</v>
+      </c>
+      <c r="H16" t="s">
+        <v>307</v>
+      </c>
+      <c r="K16" t="s">
+        <v>326</v>
+      </c>
+      <c r="N16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17">
+        <v>112</v>
+      </c>
+      <c r="B17">
+        <v>185</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>課程名稱112</v>
+      </c>
+      <c r="H17" t="s">
+        <v>307</v>
+      </c>
+      <c r="K17" t="s">
+        <v>326</v>
+      </c>
+      <c r="N17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.75" customWidth="1"/>
@@ -4254,7 +4890,7 @@
     <col min="9" max="11" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>169</v>
       </c>
@@ -4289,7 +4925,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>90</v>
       </c>
@@ -4315,7 +4951,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>91</v>
       </c>
@@ -4341,7 +4977,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>92</v>
       </c>
@@ -4367,7 +5003,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>93</v>
       </c>
@@ -4393,7 +5029,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>94</v>
       </c>
@@ -4419,7 +5055,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>95</v>
       </c>
@@ -4445,7 +5081,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>96</v>
       </c>
@@ -4471,7 +5107,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>97</v>
       </c>
@@ -4497,7 +5133,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>98</v>
       </c>
@@ -4523,7 +5159,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>99</v>
       </c>
@@ -4549,7 +5185,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>100</v>
       </c>
@@ -4575,7 +5211,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>101</v>
       </c>
@@ -4601,7 +5237,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>102</v>
       </c>
@@ -4629,7 +5265,7 @@
         <v>描述150等級1-102</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>103</v>
       </c>
@@ -4657,7 +5293,7 @@
         <v>描述150等級1-103</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>104</v>
       </c>
@@ -4685,7 +5321,7 @@
         <v>描述150等級2-104</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>105</v>
       </c>
@@ -4713,7 +5349,7 @@
         <v>描述150等級2-105</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>106</v>
       </c>
@@ -4741,7 +5377,7 @@
         <v>描述150等級2-106</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>107</v>
       </c>
@@ -4769,7 +5405,7 @@
         <v>描述150等級4-107</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>108</v>
       </c>
@@ -4797,7 +5433,7 @@
         <v>描述151等級1-108</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>109</v>
       </c>
@@ -4825,7 +5461,7 @@
         <v>描述151等級2-109</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>110</v>
       </c>
@@ -4853,7 +5489,7 @@
         <v>描述151等級3-110</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>111</v>
       </c>
@@ -4881,7 +5517,7 @@
         <v>描述151等級4-111</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>112</v>
       </c>
@@ -4909,7 +5545,7 @@
         <v>描述152等級1-112</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>113</v>
       </c>
@@ -4937,7 +5573,7 @@
         <v>描述152等級2-113</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>114</v>
       </c>
@@ -4965,7 +5601,7 @@
         <v>描述152等級3-114</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>115</v>
       </c>
@@ -4993,7 +5629,7 @@
         <v>描述152等級4-115</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>116</v>
       </c>
@@ -5021,7 +5657,7 @@
         <v>描述153等級1-116</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>117</v>
       </c>
@@ -5049,7 +5685,7 @@
         <v>描述153等級2-117</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>118</v>
       </c>
@@ -5077,7 +5713,7 @@
         <v>描述153等級3-118</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>119</v>
       </c>
@@ -5105,7 +5741,7 @@
         <v>描述153等級4-119</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>120</v>
       </c>
@@ -5119,7 +5755,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>121</v>
       </c>
@@ -5133,7 +5769,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>122</v>
       </c>
@@ -5147,7 +5783,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>123</v>
       </c>
@@ -5161,7 +5797,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>124</v>
       </c>
@@ -5175,7 +5811,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>125</v>
       </c>
@@ -5189,7 +5825,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>126</v>
       </c>
@@ -5203,7 +5839,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>127</v>
       </c>
@@ -5217,7 +5853,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>128</v>
       </c>
@@ -5231,7 +5867,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>129</v>
       </c>
@@ -5245,7 +5881,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>130</v>
       </c>
@@ -5259,7 +5895,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>131</v>
       </c>
@@ -5273,7 +5909,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="18" customHeight="1">
       <c r="A44">
         <v>132</v>
       </c>
@@ -5287,7 +5923,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="18" customHeight="1" thickBot="1">
       <c r="A45">
         <v>133</v>
       </c>
@@ -5301,7 +5937,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="18" customHeight="1" thickBot="1">
       <c r="A46">
         <v>134</v>
       </c>
@@ -5315,7 +5951,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="18" customHeight="1" thickBot="1">
       <c r="A47">
         <v>135</v>
       </c>
@@ -5329,7 +5965,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="18" customHeight="1" thickBot="1">
       <c r="A48">
         <v>136</v>
       </c>
@@ -5343,7 +5979,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="18" customHeight="1" thickBot="1">
       <c r="A49">
         <v>137</v>
       </c>
@@ -5360,7 +5996,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="18" customHeight="1" thickBot="1">
       <c r="A50">
         <v>138</v>
       </c>
@@ -5377,7 +6013,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="18" customHeight="1" thickBot="1">
       <c r="A51">
         <v>139</v>
       </c>
@@ -5394,7 +6030,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="33.75" thickBot="1">
       <c r="A52">
         <v>140</v>
       </c>
@@ -5408,7 +6044,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="50.25" thickBot="1">
       <c r="A53">
         <v>141</v>
       </c>
@@ -5422,7 +6058,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="50.25" thickBot="1">
       <c r="A54">
         <v>142</v>
       </c>
@@ -5436,7 +6072,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="66.75" thickBot="1">
       <c r="A55">
         <v>143</v>
       </c>
@@ -5456,7 +6092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -5464,7 +6100,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="3" width="16.375" customWidth="1"/>
@@ -5473,7 +6109,7 @@
     <col min="7" max="7" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -5496,7 +6132,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>65</v>
       </c>
@@ -5514,7 +6150,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.5">
       <c r="A3">
         <v>66</v>
       </c>
@@ -5532,7 +6168,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4">
         <v>67</v>
       </c>
@@ -5550,7 +6186,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5">
         <v>68</v>
       </c>
@@ -5568,7 +6204,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.5">
       <c r="A6">
         <v>69</v>
       </c>
@@ -5586,7 +6222,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.5">
       <c r="A7">
         <v>70</v>
       </c>
@@ -5604,7 +6240,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.5">
       <c r="A8">
         <v>71</v>
       </c>
@@ -5622,7 +6258,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.5">
       <c r="A9">
         <v>72</v>
       </c>
@@ -5640,7 +6276,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10">
         <v>73</v>
       </c>
@@ -5658,7 +6294,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11">
         <v>74</v>
       </c>
@@ -5676,7 +6312,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16.5">
       <c r="A12">
         <v>75</v>
       </c>
@@ -5694,7 +6330,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16.5">
       <c r="A13">
         <v>76</v>
       </c>
@@ -5712,7 +6348,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16.5">
       <c r="A14">
         <v>77</v>
       </c>
@@ -5730,7 +6366,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16.5">
       <c r="A15">
         <v>78</v>
       </c>
@@ -5748,7 +6384,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="16.5">
       <c r="A16">
         <v>79</v>
       </c>
@@ -5766,7 +6402,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="16.5">
       <c r="A17">
         <v>80</v>
       </c>
@@ -5784,7 +6420,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="16.5">
       <c r="A18">
         <v>81</v>
       </c>
@@ -5802,7 +6438,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="16.5">
       <c r="A19">
         <v>82</v>
       </c>
@@ -5820,7 +6456,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="16.5">
       <c r="A20">
         <v>83</v>
       </c>
@@ -5838,7 +6474,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="16.5">
       <c r="A21">
         <v>84</v>
       </c>
@@ -5856,7 +6492,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="16.5">
       <c r="A22">
         <v>85</v>
       </c>
@@ -5874,7 +6510,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="16.5">
       <c r="A23">
         <v>86</v>
       </c>
@@ -5892,7 +6528,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24">
         <v>87</v>
       </c>
@@ -5910,7 +6546,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25">
         <v>88</v>
       </c>
@@ -5928,7 +6564,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26">
         <v>89</v>
       </c>
@@ -5953,7 +6589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -5961,14 +6597,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -5994,7 +6630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -6020,7 +6656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -6063,7 +6699,7 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
@@ -6075,7 +6711,7 @@
     <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>275</v>
       </c>
@@ -6110,7 +6746,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>420</v>
       </c>
@@ -6141,7 +6777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>468</v>
       </c>
@@ -6169,7 +6805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>469</v>
       </c>
@@ -6197,7 +6833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>470</v>
       </c>
@@ -6225,7 +6861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>471</v>
       </c>
@@ -6253,7 +6889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>473</v>
       </c>
@@ -6281,7 +6917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>474</v>
       </c>
@@ -6309,7 +6945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>475</v>
       </c>
@@ -6337,7 +6973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>476</v>
       </c>
@@ -6365,7 +7001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>477</v>
       </c>
@@ -6393,7 +7029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>478</v>
       </c>
@@ -6421,7 +7057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>479</v>
       </c>
@@ -6449,7 +7085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>480</v>
       </c>
@@ -6495,17 +7131,17 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>296</v>
       </c>
@@ -6522,7 +7158,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6530,10 +7166,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>300</v>
+        <v>408</v>
       </c>
       <c r="D2" t="s">
-        <v>301</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -6547,19 +7183,89 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="5" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="3" max="5" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>289</v>
       </c>
@@ -6579,10 +7285,13 @@
         <v>354</v>
       </c>
       <c r="G1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6593,11 +7302,14 @@
         <v>107</v>
       </c>
       <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <f>A2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6608,11 +7320,14 @@
         <v>202</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G39" si="0">A3</f>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H39" si="0">A3</f>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6623,11 +7338,14 @@
         <v>194</v>
       </c>
       <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6638,11 +7356,14 @@
         <v>207</v>
       </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6653,11 +7374,14 @@
         <v>189</v>
       </c>
       <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6668,11 +7392,14 @@
         <v>111</v>
       </c>
       <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6683,11 +7410,14 @@
         <v>99</v>
       </c>
       <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6698,11 +7428,14 @@
         <v>229</v>
       </c>
       <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6713,11 +7446,14 @@
         <v>232</v>
       </c>
       <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6728,11 +7464,14 @@
         <v>227</v>
       </c>
       <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6743,11 +7482,14 @@
         <v>234</v>
       </c>
       <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6758,11 +7500,14 @@
         <v>233</v>
       </c>
       <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6773,11 +7518,14 @@
         <v>97</v>
       </c>
       <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6788,11 +7536,14 @@
         <v>235</v>
       </c>
       <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6803,11 +7554,14 @@
         <v>110</v>
       </c>
       <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6818,11 +7572,14 @@
         <v>191</v>
       </c>
       <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6833,11 +7590,14 @@
         <v>186</v>
       </c>
       <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6848,11 +7608,14 @@
         <v>185</v>
       </c>
       <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6863,11 +7626,14 @@
         <v>103</v>
       </c>
       <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6878,11 +7644,14 @@
         <v>184</v>
       </c>
       <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6893,11 +7662,14 @@
         <v>183</v>
       </c>
       <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6908,11 +7680,14 @@
         <v>188</v>
       </c>
       <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6923,11 +7698,14 @@
         <v>181</v>
       </c>
       <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6938,11 +7716,14 @@
         <v>106</v>
       </c>
       <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6953,11 +7734,14 @@
         <v>104</v>
       </c>
       <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6968,11 +7752,14 @@
         <v>254</v>
       </c>
       <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6983,11 +7770,14 @@
         <v>252</v>
       </c>
       <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6998,11 +7788,14 @@
         <v>255</v>
       </c>
       <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7013,11 +7806,14 @@
         <v>242</v>
       </c>
       <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7028,11 +7824,14 @@
         <v>241</v>
       </c>
       <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7043,11 +7842,14 @@
         <v>243</v>
       </c>
       <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7058,11 +7860,14 @@
         <v>248</v>
       </c>
       <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7073,11 +7878,14 @@
         <v>109</v>
       </c>
       <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7088,11 +7896,14 @@
         <v>101</v>
       </c>
       <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7103,11 +7914,14 @@
         <v>112</v>
       </c>
       <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>36</v>
       </c>
@@ -7118,11 +7932,14 @@
         <v>100</v>
       </c>
       <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>37</v>
       </c>
@@ -7133,11 +7950,14 @@
         <v>190</v>
       </c>
       <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>38</v>
       </c>
@@ -7148,6 +7968,9 @@
         <v>102</v>
       </c>
       <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -7163,7 +7986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -7175,9 +7998,9 @@
       <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="9" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="8" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="26.25" customWidth="1"/>
@@ -7188,7 +8011,7 @@
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>126</v>
       </c>
@@ -7223,7 +8046,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="9">
         <v>3548</v>
       </c>
@@ -7249,7 +8072,7 @@
         <v>285</v>
       </c>
       <c r="J2">
-        <f>VLOOKUP(G2,job!$C$2:$G$1000,4,FALSE)</f>
+        <f>VLOOKUP(G2,job!$C$2:$H$1000,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K2">
@@ -7257,7 +8080,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="9">
         <v>282</v>
       </c>
@@ -7283,7 +8106,7 @@
         <v>195</v>
       </c>
       <c r="J3">
-        <f>VLOOKUP(G3,job!$C$2:$G$1000,4,FALSE)</f>
+        <f>VLOOKUP(G3,job!$C$2:$H$1000,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K3">
@@ -7291,7 +8114,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="9">
         <v>1332</v>
       </c>
@@ -7317,7 +8140,7 @@
         <v>246</v>
       </c>
       <c r="J4">
-        <f>VLOOKUP(G4,job!$C$2:$G$1000,4,FALSE)</f>
+        <f>VLOOKUP(G4,job!$C$2:$H$1000,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K4">
@@ -7325,7 +8148,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="9">
         <v>3675</v>
       </c>
@@ -7351,7 +8174,7 @@
         <v>251</v>
       </c>
       <c r="J5">
-        <f>VLOOKUP(G5,job!$C$2:$G$1000,4,FALSE)</f>
+        <f>VLOOKUP(G5,job!$C$2:$H$1000,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K5">
@@ -7359,7 +8182,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="9">
         <v>3928</v>
       </c>
@@ -7385,7 +8208,7 @@
         <v>208</v>
       </c>
       <c r="J6">
-        <f>VLOOKUP(G6,job!$C$2:$G$1000,4,FALSE)</f>
+        <f>VLOOKUP(G6,job!$C$2:$H$1000,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K6">
@@ -7393,7 +8216,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="9">
         <v>4786</v>
       </c>
@@ -7419,7 +8242,7 @@
         <v>195</v>
       </c>
       <c r="J7">
-        <f>VLOOKUP(G7,job!$C$2:$G$1000,4,FALSE)</f>
+        <f>VLOOKUP(G7,job!$C$2:$H$1000,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K7">
@@ -7427,7 +8250,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="9">
         <v>5489</v>
       </c>
@@ -7453,7 +8276,7 @@
         <v>195</v>
       </c>
       <c r="J8">
-        <f>VLOOKUP(G8,job!$C$2:$G$1000,4,FALSE)</f>
+        <f>VLOOKUP(G8,job!$C$2:$H$1000,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K8">
@@ -7461,7 +8284,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="9">
         <v>5631</v>
       </c>
@@ -7487,7 +8310,7 @@
         <v>195</v>
       </c>
       <c r="J9">
-        <f>VLOOKUP(G9,job!$C$2:$G$1000,4,FALSE)</f>
+        <f>VLOOKUP(G9,job!$C$2:$H$1000,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K9">
@@ -7495,7 +8318,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="9">
         <v>6656</v>
       </c>
@@ -7521,7 +8344,7 @@
         <v>195</v>
       </c>
       <c r="J10">
-        <f>VLOOKUP(G10,job!$C$2:$G$1000,4,FALSE)</f>
+        <f>VLOOKUP(G10,job!$C$2:$H$1000,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K10">
@@ -7529,7 +8352,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="9">
         <v>7200</v>
       </c>
@@ -7555,7 +8378,7 @@
         <v>260</v>
       </c>
       <c r="J11">
-        <f>VLOOKUP(G11,job!$C$2:$G$1000,4,FALSE)</f>
+        <f>VLOOKUP(G11,job!$C$2:$H$1000,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K11">
@@ -7563,7 +8386,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="9">
         <v>8465</v>
       </c>
@@ -7589,7 +8412,7 @@
         <v>195</v>
       </c>
       <c r="J12">
-        <f>VLOOKUP(G12,job!$C$2:$G$1000,4,FALSE)</f>
+        <f>VLOOKUP(G12,job!$C$2:$H$1000,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K12">
@@ -7597,7 +8420,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="9">
         <v>8694</v>
       </c>
@@ -7623,7 +8446,7 @@
         <v>195</v>
       </c>
       <c r="J13">
-        <f>VLOOKUP(G13,job!$C$2:$G$1000,4,FALSE)</f>
+        <f>VLOOKUP(G13,job!$C$2:$H$1000,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K13">
@@ -7631,7 +8454,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="9">
         <v>10265</v>
       </c>
@@ -7657,7 +8480,7 @@
         <v>195</v>
       </c>
       <c r="J14">
-        <f>VLOOKUP(G14,job!$C$2:$G$1000,4,FALSE)</f>
+        <f>VLOOKUP(G14,job!$C$2:$H$1000,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K14">
@@ -7665,7 +8488,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="9">
         <v>10342</v>
       </c>
@@ -7691,7 +8514,7 @@
         <v>195</v>
       </c>
       <c r="J15">
-        <f>VLOOKUP(G15,job!$C$2:$G$1000,4,FALSE)</f>
+        <f>VLOOKUP(G15,job!$C$2:$H$1000,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K15">
@@ -7699,7 +8522,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="9">
         <v>46</v>
       </c>
@@ -7725,7 +8548,7 @@
         <v>221</v>
       </c>
       <c r="J16">
-        <f>VLOOKUP(G16,job!$C$2:$G$1000,4,FALSE)</f>
+        <f>VLOOKUP(G16,job!$C$2:$H$1000,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K16">
@@ -7733,7 +8556,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="9">
         <v>524</v>
       </c>
@@ -7759,7 +8582,7 @@
         <v>228</v>
       </c>
       <c r="J17">
-        <f>VLOOKUP(G17,job!$C$2:$G$1000,4,FALSE)</f>
+        <f>VLOOKUP(G17,job!$C$2:$H$1000,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K17">
@@ -7767,7 +8590,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="9">
         <v>699</v>
       </c>
@@ -7793,7 +8616,7 @@
         <v>228</v>
       </c>
       <c r="J18">
-        <f>VLOOKUP(G18,job!$C$2:$G$1000,4,FALSE)</f>
+        <f>VLOOKUP(G18,job!$C$2:$H$1000,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K18">
@@ -7801,7 +8624,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="9">
         <v>1215</v>
       </c>
@@ -7827,7 +8650,7 @@
         <v>226</v>
       </c>
       <c r="J19">
-        <f>VLOOKUP(G19,job!$C$2:$G$1000,4,FALSE)</f>
+        <f>VLOOKUP(G19,job!$C$2:$H$1000,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K19">
@@ -7835,7 +8658,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="9">
         <v>2046</v>
       </c>
@@ -7861,7 +8684,7 @@
         <v>226</v>
       </c>
       <c r="J20">
-        <f>VLOOKUP(G20,job!$C$2:$G$1000,4,FALSE)</f>
+        <f>VLOOKUP(G20,job!$C$2:$H$1000,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K20">
@@ -7879,7 +8702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -7887,14 +8710,14 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
+    <col min="1" max="1" width="9" style="6" customWidth="1"/>
     <col min="5" max="5" width="23.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.25" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>116</v>
       </c>
@@ -7921,7 +8744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C270"/>
   <sheetViews>
@@ -7929,14 +8752,14 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="27.625" customWidth="1"/>
     <col min="3" max="3" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>119</v>
       </c>
@@ -7947,7 +8770,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>449</v>
       </c>
@@ -7958,7 +8781,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>449</v>
       </c>
@@ -7969,7 +8792,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>449</v>
       </c>
@@ -7980,7 +8803,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>449</v>
       </c>
@@ -7991,7 +8814,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>449</v>
       </c>
@@ -8002,7 +8825,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>449</v>
       </c>
@@ -8013,7 +8836,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>449</v>
       </c>
@@ -8024,7 +8847,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>449</v>
       </c>
@@ -8035,7 +8858,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>449</v>
       </c>
@@ -8046,7 +8869,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>449</v>
       </c>
@@ -8057,7 +8880,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>814</v>
       </c>
@@ -8068,7 +8891,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>814</v>
       </c>
@@ -8079,7 +8902,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>814</v>
       </c>
@@ -8090,7 +8913,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>814</v>
       </c>
@@ -8101,7 +8924,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>814</v>
       </c>
@@ -8112,7 +8935,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>814</v>
       </c>
@@ -8123,7 +8946,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>814</v>
       </c>
@@ -8134,7 +8957,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>814</v>
       </c>
@@ -8145,7 +8968,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>814</v>
       </c>
@@ -8156,7 +8979,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>814</v>
       </c>
@@ -8167,7 +8990,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>1215</v>
       </c>
@@ -8178,7 +9001,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>1215</v>
       </c>
@@ -8189,7 +9012,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>1215</v>
       </c>
@@ -8200,7 +9023,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>1215</v>
       </c>
@@ -8211,7 +9034,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>1215</v>
       </c>
@@ -8222,7 +9045,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>1215</v>
       </c>
@@ -8233,7 +9056,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>1215</v>
       </c>
@@ -8244,7 +9067,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>1215</v>
       </c>
@@ -8255,7 +9078,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>1215</v>
       </c>
@@ -8266,7 +9089,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>1215</v>
       </c>
@@ -8277,7 +9100,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>1927</v>
       </c>
@@ -8288,7 +9111,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>1927</v>
       </c>
@@ -8299,7 +9122,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>1927</v>
       </c>
@@ -8310,7 +9133,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>1927</v>
       </c>
@@ -8321,7 +9144,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>1927</v>
       </c>
@@ -8332,7 +9155,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>1927</v>
       </c>
@@ -8343,7 +9166,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>1927</v>
       </c>
@@ -8354,7 +9177,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>1927</v>
       </c>
@@ -8365,7 +9188,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>1927</v>
       </c>
@@ -8376,7 +9199,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>1927</v>
       </c>
@@ -8387,7 +9210,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>1984</v>
       </c>
@@ -8398,7 +9221,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>1984</v>
       </c>
@@ -8409,7 +9232,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>1984</v>
       </c>
@@ -8420,7 +9243,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>1984</v>
       </c>
@@ -8431,7 +9254,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>1984</v>
       </c>
@@ -8442,7 +9265,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>1984</v>
       </c>
@@ -8453,7 +9276,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>1984</v>
       </c>
@@ -8464,7 +9287,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>1984</v>
       </c>
@@ -8475,7 +9298,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>1984</v>
       </c>
@@ -8486,7 +9309,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>1984</v>
       </c>
@@ -8497,7 +9320,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>2003</v>
       </c>
@@ -8508,7 +9331,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>2003</v>
       </c>
@@ -8519,7 +9342,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>2003</v>
       </c>
@@ -8530,7 +9353,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>2003</v>
       </c>
@@ -8541,7 +9364,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>2003</v>
       </c>
@@ -8552,7 +9375,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>2003</v>
       </c>
@@ -8563,7 +9386,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>2003</v>
       </c>
@@ -8574,7 +9397,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>2003</v>
       </c>
@@ -8585,7 +9408,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>2003</v>
       </c>
@@ -8596,7 +9419,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>2003</v>
       </c>
@@ -8607,7 +9430,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>2187</v>
       </c>
@@ -8618,7 +9441,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>2187</v>
       </c>
@@ -8629,7 +9452,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>2187</v>
       </c>
@@ -8640,7 +9463,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>2187</v>
       </c>
@@ -8651,7 +9474,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>2187</v>
       </c>
@@ -8662,7 +9485,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>2187</v>
       </c>
@@ -8673,7 +9496,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>2187</v>
       </c>
@@ -8684,7 +9507,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>2187</v>
       </c>
@@ -8695,7 +9518,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>2187</v>
       </c>
@@ -8706,7 +9529,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>2187</v>
       </c>
@@ -8717,7 +9540,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>2203</v>
       </c>
@@ -8728,7 +9551,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>2203</v>
       </c>
@@ -8739,7 +9562,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>2203</v>
       </c>
@@ -8750,7 +9573,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>2203</v>
       </c>
@@ -8761,7 +9584,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>2203</v>
       </c>
@@ -8772,7 +9595,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>2203</v>
       </c>
@@ -8783,7 +9606,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>2203</v>
       </c>
@@ -8794,7 +9617,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>2203</v>
       </c>
@@ -8805,7 +9628,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>2203</v>
       </c>
@@ -8816,7 +9639,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>2203</v>
       </c>
@@ -8827,7 +9650,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>2814</v>
       </c>
@@ -8838,7 +9661,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>2814</v>
       </c>
@@ -8849,7 +9672,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>2814</v>
       </c>
@@ -8860,7 +9683,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>2814</v>
       </c>
@@ -8871,7 +9694,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>2814</v>
       </c>
@@ -8882,7 +9705,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>2814</v>
       </c>
@@ -8893,7 +9716,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>2814</v>
       </c>
@@ -8904,7 +9727,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>2814</v>
       </c>
@@ -8915,7 +9738,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>2814</v>
       </c>
@@ -8926,7 +9749,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>2814</v>
       </c>
@@ -8937,7 +9760,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>2998</v>
       </c>
@@ -8948,7 +9771,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>2998</v>
       </c>
@@ -8959,7 +9782,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>2998</v>
       </c>
@@ -8970,7 +9793,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>2998</v>
       </c>
@@ -8981,7 +9804,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>2998</v>
       </c>
@@ -8992,7 +9815,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>2998</v>
       </c>
@@ -9003,7 +9826,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>2998</v>
       </c>
@@ -9014,7 +9837,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>2998</v>
       </c>
@@ -9025,7 +9848,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>2998</v>
       </c>
@@ -9036,7 +9859,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>2998</v>
       </c>
@@ -9047,7 +9870,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102">
         <v>3027</v>
       </c>
@@ -9058,7 +9881,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103">
         <v>3027</v>
       </c>
@@ -9069,7 +9892,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104">
         <v>3027</v>
       </c>
@@ -9080,7 +9903,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105">
         <v>3027</v>
       </c>
@@ -9091,7 +9914,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106">
         <v>3027</v>
       </c>
@@ -9102,7 +9925,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107">
         <v>3027</v>
       </c>
@@ -9113,7 +9936,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108">
         <v>3027</v>
       </c>
@@ -9124,7 +9947,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109">
         <v>3027</v>
       </c>
@@ -9135,7 +9958,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110">
         <v>3027</v>
       </c>
@@ -9146,7 +9969,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111">
         <v>3027</v>
       </c>
@@ -9157,7 +9980,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112">
         <v>3083</v>
       </c>
@@ -9168,7 +9991,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113">
         <v>3083</v>
       </c>
@@ -9179,7 +10002,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114">
         <v>3083</v>
       </c>
@@ -9190,7 +10013,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115">
         <v>3083</v>
       </c>
@@ -9201,7 +10024,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116">
         <v>3083</v>
       </c>
@@ -9212,7 +10035,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117">
         <v>3083</v>
       </c>
@@ -9223,7 +10046,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118">
         <v>3083</v>
       </c>
@@ -9234,7 +10057,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119">
         <v>3083</v>
       </c>
@@ -9245,7 +10068,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120">
         <v>3083</v>
       </c>
@@ -9256,7 +10079,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121">
         <v>3141</v>
       </c>
@@ -9267,7 +10090,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122">
         <v>3141</v>
       </c>
@@ -9278,7 +10101,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123">
         <v>3141</v>
       </c>
@@ -9289,7 +10112,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124">
         <v>3141</v>
       </c>
@@ -9300,7 +10123,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125">
         <v>3141</v>
       </c>
@@ -9311,7 +10134,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126">
         <v>3141</v>
       </c>
@@ -9322,7 +10145,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127">
         <v>3141</v>
       </c>
@@ -9333,7 +10156,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128">
         <v>3141</v>
       </c>
@@ -9344,7 +10167,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129">
         <v>3141</v>
       </c>
@@ -9355,7 +10178,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130">
         <v>3141</v>
       </c>
@@ -9366,7 +10189,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131">
         <v>3226</v>
       </c>
@@ -9377,7 +10200,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132">
         <v>3226</v>
       </c>
@@ -9388,7 +10211,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133">
         <v>3226</v>
       </c>
@@ -9399,7 +10222,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134">
         <v>3226</v>
       </c>
@@ -9410,7 +10233,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135">
         <v>3226</v>
       </c>
@@ -9421,7 +10244,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136">
         <v>3226</v>
       </c>
@@ -9432,7 +10255,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137">
         <v>3226</v>
       </c>
@@ -9443,7 +10266,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138">
         <v>3226</v>
       </c>
@@ -9454,7 +10277,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139">
         <v>3226</v>
       </c>
@@ -9465,7 +10288,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140">
         <v>3226</v>
       </c>
@@ -9476,7 +10299,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141">
         <v>3761</v>
       </c>
@@ -9487,7 +10310,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142">
         <v>3761</v>
       </c>
@@ -9498,7 +10321,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143">
         <v>3761</v>
       </c>
@@ -9509,7 +10332,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144">
         <v>3761</v>
       </c>
@@ -9520,7 +10343,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145">
         <v>3761</v>
       </c>
@@ -9531,7 +10354,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146">
         <v>3761</v>
       </c>
@@ -9542,7 +10365,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147">
         <v>3761</v>
       </c>
@@ -9553,7 +10376,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148">
         <v>3761</v>
       </c>
@@ -9564,7 +10387,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149">
         <v>3761</v>
       </c>
@@ -9575,7 +10398,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150">
         <v>3761</v>
       </c>
@@ -9586,7 +10409,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151">
         <v>3910</v>
       </c>
@@ -9597,7 +10420,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152">
         <v>3910</v>
       </c>
@@ -9608,7 +10431,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153">
         <v>3910</v>
       </c>
@@ -9619,7 +10442,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154">
         <v>3910</v>
       </c>
@@ -9630,7 +10453,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155">
         <v>3910</v>
       </c>
@@ -9641,7 +10464,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156">
         <v>3910</v>
       </c>
@@ -9652,7 +10475,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157">
         <v>3910</v>
       </c>
@@ -9663,7 +10486,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158">
         <v>3910</v>
       </c>
@@ -9674,7 +10497,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159">
         <v>3910</v>
       </c>
@@ -9685,7 +10508,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160">
         <v>3910</v>
       </c>
@@ -9696,7 +10519,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="A161">
         <v>4048</v>
       </c>
@@ -9707,7 +10530,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162">
         <v>4048</v>
       </c>
@@ -9718,7 +10541,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163">
         <v>4048</v>
       </c>
@@ -9729,7 +10552,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3">
       <c r="A164">
         <v>4048</v>
       </c>
@@ -9740,7 +10563,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="A165">
         <v>4048</v>
       </c>
@@ -9751,7 +10574,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="A166">
         <v>4048</v>
       </c>
@@ -9762,7 +10585,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167">
         <v>4048</v>
       </c>
@@ -9773,7 +10596,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168">
         <v>4048</v>
       </c>
@@ -9784,7 +10607,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3">
       <c r="A169">
         <v>4048</v>
       </c>
@@ -9795,7 +10618,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3">
       <c r="A170">
         <v>4048</v>
       </c>
@@ -9806,7 +10629,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3">
       <c r="A171">
         <v>5124</v>
       </c>
@@ -9817,7 +10640,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3">
       <c r="A172">
         <v>5124</v>
       </c>
@@ -9828,7 +10651,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3">
       <c r="A173">
         <v>5124</v>
       </c>
@@ -9839,7 +10662,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3">
       <c r="A174">
         <v>5124</v>
       </c>
@@ -9850,7 +10673,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3">
       <c r="A175">
         <v>5124</v>
       </c>
@@ -9861,7 +10684,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3">
       <c r="A176">
         <v>5124</v>
       </c>
@@ -9872,7 +10695,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3">
       <c r="A177">
         <v>5124</v>
       </c>
@@ -9883,7 +10706,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3">
       <c r="A178">
         <v>5124</v>
       </c>
@@ -9894,7 +10717,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3">
       <c r="A179">
         <v>5124</v>
       </c>
@@ -9905,7 +10728,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3">
       <c r="A180">
         <v>5124</v>
       </c>
@@ -9916,7 +10739,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3">
       <c r="A181">
         <v>5631</v>
       </c>
@@ -9927,7 +10750,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3">
       <c r="A182">
         <v>5631</v>
       </c>
@@ -9938,7 +10761,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3">
       <c r="A183">
         <v>5631</v>
       </c>
@@ -9949,7 +10772,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3">
       <c r="A184">
         <v>5631</v>
       </c>
@@ -9960,7 +10783,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3">
       <c r="A185">
         <v>5631</v>
       </c>
@@ -9971,7 +10794,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3">
       <c r="A186">
         <v>5631</v>
       </c>
@@ -9982,7 +10805,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3">
       <c r="A187">
         <v>5631</v>
       </c>
@@ -9993,7 +10816,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3">
       <c r="A188">
         <v>5631</v>
       </c>
@@ -10004,7 +10827,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3">
       <c r="A189">
         <v>5631</v>
       </c>
@@ -10015,7 +10838,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3">
       <c r="A190">
         <v>5631</v>
       </c>
@@ -10026,7 +10849,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3">
       <c r="A191">
         <v>5928</v>
       </c>
@@ -10037,7 +10860,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3">
       <c r="A192">
         <v>5928</v>
       </c>
@@ -10048,7 +10871,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3">
       <c r="A193">
         <v>5928</v>
       </c>
@@ -10059,7 +10882,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194">
         <v>5928</v>
       </c>
@@ -10070,7 +10893,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3">
       <c r="A195">
         <v>5928</v>
       </c>
@@ -10081,7 +10904,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3">
       <c r="A196">
         <v>5928</v>
       </c>
@@ -10092,7 +10915,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3">
       <c r="A197">
         <v>5928</v>
       </c>
@@ -10103,7 +10926,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3">
       <c r="A198">
         <v>5928</v>
       </c>
@@ -10114,7 +10937,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3">
       <c r="A199">
         <v>5928</v>
       </c>
@@ -10125,7 +10948,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3">
       <c r="A200">
         <v>5928</v>
       </c>
@@ -10136,7 +10959,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3">
       <c r="A201">
         <v>6150</v>
       </c>
@@ -10147,7 +10970,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3">
       <c r="A202">
         <v>6150</v>
       </c>
@@ -10158,7 +10981,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3">
       <c r="A203">
         <v>6150</v>
       </c>
@@ -10169,7 +10992,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3">
       <c r="A204">
         <v>6150</v>
       </c>
@@ -10180,7 +11003,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3">
       <c r="A205">
         <v>6150</v>
       </c>
@@ -10191,7 +11014,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3">
       <c r="A206">
         <v>6150</v>
       </c>
@@ -10202,7 +11025,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3">
       <c r="A207">
         <v>6150</v>
       </c>
@@ -10213,7 +11036,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3">
       <c r="A208">
         <v>6150</v>
       </c>
@@ -10224,7 +11047,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3">
       <c r="A209">
         <v>6150</v>
       </c>
@@ -10235,7 +11058,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3">
       <c r="A210">
         <v>6150</v>
       </c>
@@ -10246,7 +11069,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3">
       <c r="A211">
         <v>6331</v>
       </c>
@@ -10257,7 +11080,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3">
       <c r="A212">
         <v>6331</v>
       </c>
@@ -10268,7 +11091,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3">
       <c r="A213">
         <v>6331</v>
       </c>
@@ -10279,7 +11102,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3">
       <c r="A214">
         <v>6331</v>
       </c>
@@ -10290,7 +11113,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3">
       <c r="A215">
         <v>6331</v>
       </c>
@@ -10301,7 +11124,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3">
       <c r="A216">
         <v>6331</v>
       </c>
@@ -10312,7 +11135,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3">
       <c r="A217">
         <v>6331</v>
       </c>
@@ -10323,7 +11146,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3">
       <c r="A218">
         <v>6331</v>
       </c>
@@ -10334,7 +11157,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3">
       <c r="A219">
         <v>6331</v>
       </c>
@@ -10345,7 +11168,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3">
       <c r="A220">
         <v>6331</v>
       </c>
@@ -10356,7 +11179,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3">
       <c r="A221">
         <v>6466</v>
       </c>
@@ -10367,7 +11190,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3">
       <c r="A222">
         <v>6466</v>
       </c>
@@ -10378,7 +11201,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3">
       <c r="A223">
         <v>6466</v>
       </c>
@@ -10389,7 +11212,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3">
       <c r="A224">
         <v>6466</v>
       </c>
@@ -10400,7 +11223,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3">
       <c r="A225">
         <v>6466</v>
       </c>
@@ -10411,7 +11234,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3">
       <c r="A226">
         <v>6466</v>
       </c>
@@ -10422,7 +11245,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3">
       <c r="A227">
         <v>6466</v>
       </c>
@@ -10433,7 +11256,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3">
       <c r="A228">
         <v>6466</v>
       </c>
@@ -10444,7 +11267,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3">
       <c r="A229">
         <v>6466</v>
       </c>
@@ -10455,7 +11278,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3">
       <c r="A230">
         <v>6466</v>
       </c>
@@ -10466,7 +11289,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3">
       <c r="A231">
         <v>7001</v>
       </c>
@@ -10477,7 +11300,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3">
       <c r="A232">
         <v>7001</v>
       </c>
@@ -10488,7 +11311,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3">
       <c r="A233">
         <v>7001</v>
       </c>
@@ -10499,7 +11322,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3">
       <c r="A234">
         <v>7001</v>
       </c>
@@ -10510,7 +11333,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3">
       <c r="A235">
         <v>7001</v>
       </c>
@@ -10521,7 +11344,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3">
       <c r="A236">
         <v>7001</v>
       </c>
@@ -10532,7 +11355,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3">
       <c r="A237">
         <v>7001</v>
       </c>
@@ -10543,7 +11366,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3">
       <c r="A238">
         <v>7001</v>
       </c>
@@ -10554,7 +11377,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3">
       <c r="A239">
         <v>7001</v>
       </c>
@@ -10565,7 +11388,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3">
       <c r="A240">
         <v>7001</v>
       </c>
@@ -10576,7 +11399,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3">
       <c r="A241">
         <v>7330</v>
       </c>
@@ -10587,7 +11410,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3">
       <c r="A242">
         <v>7330</v>
       </c>
@@ -10598,7 +11421,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3">
       <c r="A243">
         <v>7330</v>
       </c>
@@ -10609,7 +11432,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3">
       <c r="A244">
         <v>7330</v>
       </c>
@@ -10620,7 +11443,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3">
       <c r="A245">
         <v>7330</v>
       </c>
@@ -10631,7 +11454,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3">
       <c r="A246">
         <v>7330</v>
       </c>
@@ -10642,7 +11465,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3">
       <c r="A247">
         <v>7330</v>
       </c>
@@ -10653,7 +11476,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3">
       <c r="A248">
         <v>7330</v>
       </c>
@@ -10664,7 +11487,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3">
       <c r="A249">
         <v>7330</v>
       </c>
@@ -10675,7 +11498,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3">
       <c r="A250">
         <v>7330</v>
       </c>
@@ -10686,7 +11509,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3">
       <c r="A251">
         <v>7616</v>
       </c>
@@ -10697,7 +11520,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3">
       <c r="A252">
         <v>7616</v>
       </c>
@@ -10708,7 +11531,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3">
       <c r="A253">
         <v>7616</v>
       </c>
@@ -10719,7 +11542,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3">
       <c r="A254">
         <v>7616</v>
       </c>
@@ -10730,7 +11553,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3">
       <c r="A255">
         <v>7616</v>
       </c>
@@ -10741,7 +11564,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3">
       <c r="A256">
         <v>7616</v>
       </c>
@@ -10752,7 +11575,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3">
       <c r="A257">
         <v>7616</v>
       </c>
@@ -10763,7 +11586,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3">
       <c r="A258">
         <v>7616</v>
       </c>
@@ -10774,7 +11597,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3">
       <c r="A259">
         <v>7616</v>
       </c>
@@ -10785,7 +11608,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3">
       <c r="A260">
         <v>7616</v>
       </c>
@@ -10796,7 +11619,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3">
       <c r="A261">
         <v>10362</v>
       </c>
@@ -10807,7 +11630,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3">
       <c r="A262">
         <v>10362</v>
       </c>
@@ -10818,7 +11641,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3">
       <c r="A263">
         <v>10362</v>
       </c>
@@ -10829,7 +11652,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3">
       <c r="A264">
         <v>10362</v>
       </c>
@@ -10840,7 +11663,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3">
       <c r="A265">
         <v>10362</v>
       </c>
@@ -10851,7 +11674,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3">
       <c r="A266">
         <v>10362</v>
       </c>
@@ -10862,7 +11685,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3">
       <c r="A267">
         <v>10362</v>
       </c>
@@ -10873,7 +11696,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3">
       <c r="A268">
         <v>10362</v>
       </c>
@@ -10884,7 +11707,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3">
       <c r="A269">
         <v>10362</v>
       </c>
@@ -10895,7 +11718,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3">
       <c r="A270">
         <v>10362</v>
       </c>
@@ -10917,7 +11740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
@@ -10927,8 +11750,9 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="32.25" style="11" customWidth="1"/>
     <col min="3" max="3" width="28.25" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="27.25" hidden="1" customWidth="1"/>
@@ -10939,7 +11763,7 @@
     <col min="10" max="10" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
@@ -10971,7 +11795,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>100</v>
       </c>
@@ -10988,7 +11812,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>101</v>
       </c>
@@ -11005,7 +11829,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>102</v>
       </c>
@@ -11022,7 +11846,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>103</v>
       </c>
@@ -11042,7 +11866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>104</v>
       </c>
@@ -11062,7 +11886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>55</v>
       </c>
@@ -11087,585 +11911,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="6.875" customWidth="1"/>
-    <col min="4" max="4" width="8.375" customWidth="1"/>
-    <col min="5" max="5" width="5.5" customWidth="1"/>
-    <col min="6" max="6" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="11" width="31.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>150</v>
-      </c>
-      <c r="B2" s="1">
-        <v>103</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>151</v>
-      </c>
-      <c r="B3" s="1">
-        <v>103</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>152</v>
-      </c>
-      <c r="B4" s="1">
-        <v>103</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>153</v>
-      </c>
-      <c r="B5" s="1">
-        <v>103</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>95</v>
-      </c>
-      <c r="B6" s="1">
-        <f>competency_model!A2</f>
-        <v>100</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>96</v>
-      </c>
-      <c r="B7" s="1">
-        <f>competency_model!A2</f>
-        <v>100</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>97</v>
-      </c>
-      <c r="B8" s="1">
-        <f>competency_model!A2</f>
-        <v>100</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>98</v>
-      </c>
-      <c r="B9" s="1">
-        <f>competency_model!A2</f>
-        <v>100</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="66" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>99</v>
-      </c>
-      <c r="B10" s="1">
-        <f>competency_model!A2</f>
-        <v>100</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>147</v>
-      </c>
-      <c r="B11">
-        <v>55</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>148</v>
-      </c>
-      <c r="B12">
-        <v>55</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>132</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>149</v>
-      </c>
-      <c r="B13">
-        <v>55</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>134</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>154</v>
-      </c>
-      <c r="B14">
-        <v>104</v>
-      </c>
-      <c r="C14" t="s">
-        <v>356</v>
-      </c>
-      <c r="D14" t="s">
-        <v>358</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>360</v>
-      </c>
-      <c r="G14" t="s">
-        <v>361</v>
-      </c>
-      <c r="I14" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>155</v>
-      </c>
-      <c r="B15">
-        <v>104</v>
-      </c>
-      <c r="C15" t="s">
-        <v>356</v>
-      </c>
-      <c r="D15" t="s">
-        <v>358</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>364</v>
-      </c>
-      <c r="G15" t="s">
-        <v>365</v>
-      </c>
-      <c r="I15" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>156</v>
-      </c>
-      <c r="B16">
-        <v>104</v>
-      </c>
-      <c r="C16" t="s">
-        <v>356</v>
-      </c>
-      <c r="D16" t="s">
-        <v>358</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>366</v>
-      </c>
-      <c r="G16" t="s">
-        <v>367</v>
-      </c>
-      <c r="I16" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>157</v>
-      </c>
-      <c r="B17">
-        <v>104</v>
-      </c>
-      <c r="C17" t="s">
-        <v>356</v>
-      </c>
-      <c r="D17" t="s">
-        <v>358</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>368</v>
-      </c>
-      <c r="G17" t="s">
-        <v>369</v>
-      </c>
-      <c r="I17" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>158</v>
-      </c>
-      <c r="B18">
-        <v>104</v>
-      </c>
-      <c r="C18" t="s">
-        <v>356</v>
-      </c>
-      <c r="D18" t="s">
-        <v>358</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>370</v>
-      </c>
-      <c r="G18" t="s">
-        <v>371</v>
-      </c>
-      <c r="I18" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>159</v>
-      </c>
-      <c r="B19">
-        <v>104</v>
-      </c>
-      <c r="C19" t="s">
-        <v>356</v>
-      </c>
-      <c r="D19" t="s">
-        <v>358</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>372</v>
-      </c>
-      <c r="G19" t="s">
-        <v>362</v>
-      </c>
-      <c r="I19" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>160</v>
-      </c>
-      <c r="B20">
-        <v>104</v>
-      </c>
-      <c r="C20" t="s">
-        <v>356</v>
-      </c>
-      <c r="D20" t="s">
-        <v>358</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>373</v>
-      </c>
-      <c r="G20" t="s">
-        <v>374</v>
-      </c>
-      <c r="I20" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>161</v>
-      </c>
-      <c r="B21">
-        <v>104</v>
-      </c>
-      <c r="C21" t="s">
-        <v>356</v>
-      </c>
-      <c r="D21" t="s">
-        <v>358</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>375</v>
-      </c>
-      <c r="G21" t="s">
-        <v>363</v>
-      </c>
-      <c r="I21" t="s">
-        <v>363</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>